--- a/明日方舟.xlsx
+++ b/明日方舟.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c236f75a02a26943/Code/GitHub/ArknightsResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="553" documentId="13_ncr:1_{9CBF6C8F-80C7-4D7C-B589-C405013AA579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD6FA48-1B96-415A-80A0-BD4474CE7CB3}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="13_ncr:1_{9CBF6C8F-80C7-4D7C-B589-C405013AA579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF23BDB2-2478-4F6E-B793-787658DB6E16}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="543" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="543" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="养成" sheetId="8" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="2673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="2897">
   <si>
     <t>芯片助剂</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -8853,10 +8853,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>澄闪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Goldenglow</t>
   </si>
   <si>
@@ -9070,6 +9066,683 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃拉托</t>
+  </si>
+  <si>
+    <t>车尔尼</t>
+  </si>
+  <si>
+    <t>濯尘芙蓉</t>
+  </si>
+  <si>
+    <t>黑键</t>
+  </si>
+  <si>
+    <t>星源</t>
+  </si>
+  <si>
+    <t>承曦格雷伊</t>
+  </si>
+  <si>
+    <t>多萝西</t>
+  </si>
+  <si>
+    <t>至简</t>
+  </si>
+  <si>
+    <t>晓歌</t>
+  </si>
+  <si>
+    <t>鸿雪</t>
+  </si>
+  <si>
+    <t>百炼嘉维尔</t>
+  </si>
+  <si>
+    <t>但书</t>
+  </si>
+  <si>
+    <t>玛恩纳</t>
+  </si>
+  <si>
+    <t>罗小黑</t>
+  </si>
+  <si>
+    <t>YH</t>
+  </si>
+  <si>
+    <t>NTS</t>
+  </si>
+  <si>
+    <t>SLY</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>YY</t>
+  </si>
+  <si>
+    <t>AJLN</t>
+  </si>
+  <si>
+    <t>AYFL</t>
+  </si>
+  <si>
+    <t>YFLT</t>
+  </si>
+  <si>
+    <t>TJZW</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>FLQ</t>
+  </si>
+  <si>
+    <t>LPLD</t>
+  </si>
+  <si>
+    <t>YTL</t>
+  </si>
+  <si>
+    <t>YLS</t>
+  </si>
+  <si>
+    <t>BJ</t>
+  </si>
+  <si>
+    <t>LD</t>
+  </si>
+  <si>
+    <t>PLWS</t>
+  </si>
+  <si>
+    <t>SLR</t>
+  </si>
+  <si>
+    <t>YX</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>LS</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>BMX</t>
+  </si>
+  <si>
+    <t>HM</t>
+  </si>
+  <si>
+    <t>HFL</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>AMY</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>STS</t>
+  </si>
+  <si>
+    <t>DKSS</t>
+  </si>
+  <si>
+    <t>ASDE</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>SY</t>
+  </si>
+  <si>
+    <t>JXQ</t>
+  </si>
+  <si>
+    <t>LX</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>JF</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>DXS</t>
+  </si>
+  <si>
+    <t>JWE</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>SHS</t>
+  </si>
+  <si>
+    <t>YS</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>QDF</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>MLS</t>
+  </si>
+  <si>
+    <t>ADQE</t>
+  </si>
+  <si>
+    <t>KLS</t>
+  </si>
+  <si>
+    <t>QT</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>ASE</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>SDHD</t>
+  </si>
+  <si>
+    <t>YR</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>LY</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>XLZ</t>
+  </si>
+  <si>
+    <t>HJ</t>
+  </si>
+  <si>
+    <t>YD</t>
+  </si>
+  <si>
+    <t>CASTLE3</t>
+  </si>
+  <si>
+    <t>LANCET2</t>
+  </si>
+  <si>
+    <t>KB</t>
+  </si>
+  <si>
+    <t>SQD</t>
+  </si>
+  <si>
+    <t>YM</t>
+  </si>
+  <si>
+    <t>GLN</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>YJY</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SHY</t>
+  </si>
+  <si>
+    <t>GLY</t>
+  </si>
+  <si>
+    <t>PPQ</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>GLKS</t>
+  </si>
+  <si>
+    <t>SSL</t>
+  </si>
+  <si>
+    <t>HLG</t>
+  </si>
+  <si>
+    <t>XJ</t>
+  </si>
+  <si>
+    <t>TJN</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>MZL</t>
+  </si>
+  <si>
+    <t>YK</t>
+  </si>
+  <si>
+    <t>SZR</t>
+  </si>
+  <si>
+    <t>HY</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>MSTM</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>BLQ</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>ABE</t>
+  </si>
+  <si>
+    <t>XZ</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>KEB</t>
+  </si>
+  <si>
+    <t>JZ</t>
+  </si>
+  <si>
+    <t>QL</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>DZZ</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>ZT</t>
+  </si>
+  <si>
+    <t>WL</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>JJ</t>
+  </si>
+  <si>
+    <t>THRMEX</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>LEHT</t>
+  </si>
+  <si>
+    <t>BDK</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>DY</t>
+  </si>
+  <si>
+    <t>QD</t>
+  </si>
+  <si>
+    <t>XY</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>JW</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>AZL</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>TMM</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SETE</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>XG</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>MDX</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>AMYJW</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>QFQ</t>
+  </si>
+  <si>
+    <t>LB</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>KX</t>
+  </si>
+  <si>
+    <t>ALS</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>TY</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>YYYR</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>ZC</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>RQ</t>
+  </si>
+  <si>
+    <t>BY</t>
+  </si>
+  <si>
+    <t>KEX</t>
+  </si>
+  <si>
+    <t>ZXSQD</t>
+  </si>
+  <si>
+    <t>GLDY</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>QNLA</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>PLS</t>
+  </si>
+  <si>
+    <t>JRWLC</t>
+  </si>
+  <si>
+    <t>LSL</t>
+  </si>
+  <si>
+    <t>YMB</t>
+  </si>
+  <si>
+    <t>LBLT</t>
+  </si>
+  <si>
+    <t>YQSLG</t>
+  </si>
+  <si>
+    <t>YW</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>SQ</t>
+  </si>
+  <si>
+    <t>YZ</t>
+  </si>
+  <si>
+    <t>ZYQSH</t>
+  </si>
+  <si>
+    <t>LZ</t>
+  </si>
+  <si>
+    <t>JG</t>
+  </si>
+  <si>
+    <t>YL</t>
+  </si>
+  <si>
+    <t>YB</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>JXZ</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>FYMT</t>
+  </si>
+  <si>
+    <t>HG</t>
+  </si>
+  <si>
+    <t>GMYLS</t>
+  </si>
+  <si>
+    <t>ALN</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
+    <t>CEN</t>
+  </si>
+  <si>
+    <t>ZCFR</t>
+  </si>
+  <si>
+    <t>CXGLY</t>
+  </si>
+  <si>
+    <t>DLX</t>
+  </si>
+  <si>
+    <t>ZJ</t>
+  </si>
+  <si>
+    <t>HX</t>
+  </si>
+  <si>
+    <t>BLJWE</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>MEN</t>
+  </si>
+  <si>
+    <t>LXH</t>
+  </si>
+  <si>
+    <t>首字母</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10669,6 +11342,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="21" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10760,21 +11448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="21" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11140,14 +11813,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="216" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
       <c r="G1" s="54" t="s">
         <v>124</v>
       </c>
@@ -17375,7 +18048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849C462-74B4-4207-BA44-BE8103803BB4}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -17936,17 +18609,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="239" t="s">
+      <c r="A17" s="244" t="s">
         <v>1544</v>
       </c>
-      <c r="B17" s="240"/>
-      <c r="C17" s="240"/>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="240"/>
-      <c r="I17" s="241"/>
+      <c r="B17" s="245"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="245"/>
+      <c r="E17" s="245"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="245"/>
+      <c r="I17" s="246"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="134" t="s">
@@ -18475,16 +19148,16 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="237" t="s">
+      <c r="A34" s="242" t="s">
         <v>1543</v>
       </c>
-      <c r="B34" s="237"/>
-      <c r="C34" s="237"/>
-      <c r="D34" s="237"/>
-      <c r="E34" s="237"/>
-      <c r="F34" s="237"/>
-      <c r="G34" s="237"/>
-      <c r="H34" s="237"/>
+      <c r="B34" s="242"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="242"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="242"/>
+      <c r="G34" s="242"/>
+      <c r="H34" s="242"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="134" t="s">
@@ -19413,70 +20086,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:116" x14ac:dyDescent="0.35">
-      <c r="A1" s="214"/>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214" t="s">
+      <c r="A1" s="219"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="214"/>
-      <c r="R1" s="214"/>
-      <c r="S1" s="214"/>
-      <c r="T1" s="214"/>
-      <c r="U1" s="214"/>
-      <c r="V1" s="214"/>
-      <c r="W1" s="214"/>
-      <c r="X1" s="214"/>
-      <c r="Y1" s="214"/>
-      <c r="Z1" s="214"/>
-      <c r="AA1" s="214"/>
-      <c r="AB1" s="214"/>
-      <c r="AC1" s="214"/>
-      <c r="AD1" s="214"/>
-      <c r="AE1" s="214"/>
-      <c r="AF1" s="214"/>
-      <c r="AG1" s="214"/>
-      <c r="AH1" s="214"/>
-      <c r="AI1" s="214"/>
-      <c r="AJ1" s="214"/>
-      <c r="AK1" s="214"/>
-      <c r="AL1" s="214"/>
-      <c r="AM1" s="214"/>
-      <c r="AN1" s="214"/>
-      <c r="AO1" s="214"/>
-      <c r="AP1" s="214"/>
-      <c r="AQ1" s="214"/>
-      <c r="AR1" s="214"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
+      <c r="O1" s="219"/>
+      <c r="P1" s="219"/>
+      <c r="Q1" s="219"/>
+      <c r="R1" s="219"/>
+      <c r="S1" s="219"/>
+      <c r="T1" s="219"/>
+      <c r="U1" s="219"/>
+      <c r="V1" s="219"/>
+      <c r="W1" s="219"/>
+      <c r="X1" s="219"/>
+      <c r="Y1" s="219"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="219"/>
+      <c r="AC1" s="219"/>
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
+      <c r="AF1" s="219"/>
+      <c r="AG1" s="219"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="219"/>
+      <c r="AJ1" s="219"/>
+      <c r="AK1" s="219"/>
+      <c r="AL1" s="219"/>
+      <c r="AM1" s="219"/>
+      <c r="AN1" s="219"/>
+      <c r="AO1" s="219"/>
+      <c r="AP1" s="219"/>
+      <c r="AQ1" s="219"/>
+      <c r="AR1" s="219"/>
       <c r="AS1" s="39"/>
       <c r="AT1" s="39"/>
-      <c r="AU1" s="213" t="s">
+      <c r="AU1" s="218" t="s">
         <v>206</v>
       </c>
-      <c r="AV1" s="213"/>
-      <c r="AW1" s="213"/>
-      <c r="AX1" s="213" t="s">
+      <c r="AV1" s="218"/>
+      <c r="AW1" s="218"/>
+      <c r="AX1" s="218" t="s">
         <v>225</v>
       </c>
-      <c r="AY1" s="213"/>
+      <c r="AY1" s="218"/>
       <c r="AZ1" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="BA1" s="213" t="s">
+      <c r="BA1" s="218" t="s">
         <v>221</v>
       </c>
-      <c r="BB1" s="213"/>
+      <c r="BB1" s="218"/>
       <c r="BC1" s="40" t="s">
         <v>220</v>
       </c>
@@ -19516,59 +20189,59 @@
       <c r="BO1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="BP1" s="213" t="s">
+      <c r="BP1" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="BQ1" s="213"/>
-      <c r="BR1" s="213"/>
-      <c r="BS1" s="213"/>
-      <c r="BT1" s="213"/>
-      <c r="BU1" s="213"/>
-      <c r="BV1" s="213"/>
-      <c r="BW1" s="213"/>
-      <c r="BX1" s="213"/>
-      <c r="BY1" s="213"/>
-      <c r="BZ1" s="213"/>
-      <c r="CA1" s="213"/>
-      <c r="CB1" s="213"/>
-      <c r="CC1" s="213"/>
-      <c r="CD1" s="212" t="s">
+      <c r="BQ1" s="218"/>
+      <c r="BR1" s="218"/>
+      <c r="BS1" s="218"/>
+      <c r="BT1" s="218"/>
+      <c r="BU1" s="218"/>
+      <c r="BV1" s="218"/>
+      <c r="BW1" s="218"/>
+      <c r="BX1" s="218"/>
+      <c r="BY1" s="218"/>
+      <c r="BZ1" s="218"/>
+      <c r="CA1" s="218"/>
+      <c r="CB1" s="218"/>
+      <c r="CC1" s="218"/>
+      <c r="CD1" s="217" t="s">
         <v>227</v>
       </c>
-      <c r="CE1" s="212"/>
-      <c r="CF1" s="212"/>
-      <c r="CG1" s="212"/>
-      <c r="CH1" s="212"/>
-      <c r="CI1" s="212"/>
-      <c r="CJ1" s="212"/>
-      <c r="CK1" s="212"/>
-      <c r="CL1" s="212"/>
-      <c r="CM1" s="212"/>
-      <c r="CN1" s="212"/>
-      <c r="CO1" s="212"/>
-      <c r="CP1" s="212"/>
-      <c r="CQ1" s="212"/>
-      <c r="CR1" s="212"/>
-      <c r="CS1" s="212"/>
-      <c r="CT1" s="212"/>
-      <c r="CU1" s="212"/>
-      <c r="CV1" s="212"/>
-      <c r="CW1" s="212"/>
-      <c r="CX1" s="212"/>
-      <c r="CY1" s="212"/>
-      <c r="CZ1" s="212"/>
-      <c r="DA1" s="212"/>
-      <c r="DB1" s="212"/>
-      <c r="DC1" s="212"/>
-      <c r="DD1" s="212"/>
-      <c r="DE1" s="212"/>
-      <c r="DF1" s="212"/>
-      <c r="DG1" s="212"/>
-      <c r="DH1" s="212"/>
-      <c r="DI1" s="212"/>
-      <c r="DJ1" s="212"/>
-      <c r="DK1" s="212"/>
-      <c r="DL1" s="212"/>
+      <c r="CE1" s="217"/>
+      <c r="CF1" s="217"/>
+      <c r="CG1" s="217"/>
+      <c r="CH1" s="217"/>
+      <c r="CI1" s="217"/>
+      <c r="CJ1" s="217"/>
+      <c r="CK1" s="217"/>
+      <c r="CL1" s="217"/>
+      <c r="CM1" s="217"/>
+      <c r="CN1" s="217"/>
+      <c r="CO1" s="217"/>
+      <c r="CP1" s="217"/>
+      <c r="CQ1" s="217"/>
+      <c r="CR1" s="217"/>
+      <c r="CS1" s="217"/>
+      <c r="CT1" s="217"/>
+      <c r="CU1" s="217"/>
+      <c r="CV1" s="217"/>
+      <c r="CW1" s="217"/>
+      <c r="CX1" s="217"/>
+      <c r="CY1" s="217"/>
+      <c r="CZ1" s="217"/>
+      <c r="DA1" s="217"/>
+      <c r="DB1" s="217"/>
+      <c r="DC1" s="217"/>
+      <c r="DD1" s="217"/>
+      <c r="DE1" s="217"/>
+      <c r="DF1" s="217"/>
+      <c r="DG1" s="217"/>
+      <c r="DH1" s="217"/>
+      <c r="DI1" s="217"/>
+      <c r="DJ1" s="217"/>
+      <c r="DK1" s="217"/>
+      <c r="DL1" s="217"/>
     </row>
     <row r="2" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A2" s="39" t="s">
@@ -30242,10 +30915,10 @@
       <c r="J2" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="K2" s="216" t="s">
+      <c r="K2" s="221" t="s">
         <v>246</v>
       </c>
-      <c r="L2" s="216"/>
+      <c r="L2" s="221"/>
       <c r="M2" s="22" t="s">
         <v>245</v>
       </c>
@@ -30255,10 +30928,10 @@
       <c r="O2" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="P2" s="216" t="s">
+      <c r="P2" s="221" t="s">
         <v>242</v>
       </c>
-      <c r="Q2" s="216"/>
+      <c r="Q2" s="221"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="31" t="s">
@@ -30288,10 +30961,10 @@
       <c r="J3" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="K3" s="217" t="s">
+      <c r="K3" s="222" t="s">
         <v>239</v>
       </c>
-      <c r="L3" s="217"/>
+      <c r="L3" s="222"/>
       <c r="M3" s="62" t="s">
         <v>238</v>
       </c>
@@ -30301,10 +30974,10 @@
       <c r="O3" s="62" t="s">
         <v>237</v>
       </c>
-      <c r="P3" s="217" t="s">
+      <c r="P3" s="222" t="s">
         <v>237</v>
       </c>
-      <c r="Q3" s="217"/>
+      <c r="Q3" s="222"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="31" t="s">
@@ -30506,12 +31179,12 @@
       <c r="A11" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B11" s="218" t="s">
+      <c r="B11" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="220"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="225"/>
       <c r="F11" s="77"/>
       <c r="G11" s="77"/>
       <c r="J11" s="97" t="s">
@@ -30888,13 +31561,13 @@
       <c r="Q29" s="23"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="215">
+      <c r="A31" s="220">
         <f>SUM(J32:J35)</f>
         <v>284800</v>
       </c>
-      <c r="B31" s="215"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
+      <c r="B31" s="220"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="220"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
@@ -30909,12 +31582,12 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="220" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="215"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="215"/>
+      <c r="B32" s="220"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="220"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1">
@@ -30930,12 +31603,12 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="215" t="s">
+      <c r="A33" s="220" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="215"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1">
@@ -30951,12 +31624,12 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="215" t="s">
+      <c r="A34" s="220" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="215"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="215"/>
+      <c r="B34" s="220"/>
+      <c r="C34" s="220"/>
+      <c r="D34" s="220"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1">
@@ -30972,12 +31645,12 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="215" t="s">
+      <c r="A35" s="220" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="215"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
+      <c r="B35" s="220"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="220"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1">
@@ -31013,13 +31686,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D98FF0-251B-47BD-8769-023F908CB4D9}">
-  <dimension ref="A1:AR234"/>
+  <dimension ref="A1:AS248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="AT1" sqref="AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -31054,142 +31727,145 @@
     <col min="45" max="16384" width="8.7265625" style="168"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="194" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="243" t="s">
+    <row r="1" spans="1:45" s="194" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="212" t="s">
         <v>1765</v>
       </c>
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="213" t="s">
         <v>1766</v>
       </c>
-      <c r="C1" s="243" t="s">
+      <c r="C1" s="212" t="s">
         <v>1767</v>
       </c>
-      <c r="D1" s="243" t="s">
+      <c r="D1" s="212" t="s">
         <v>1768</v>
       </c>
-      <c r="E1" s="243" t="s">
+      <c r="E1" s="212" t="s">
         <v>2492</v>
       </c>
-      <c r="F1" s="243" t="s">
+      <c r="F1" s="212" t="s">
         <v>1769</v>
       </c>
-      <c r="G1" s="243" t="s">
+      <c r="G1" s="212" t="s">
         <v>2334</v>
       </c>
-      <c r="H1" s="243" t="s">
+      <c r="H1" s="212" t="s">
         <v>1770</v>
       </c>
-      <c r="I1" s="243" t="s">
+      <c r="I1" s="212" t="s">
         <v>1771</v>
       </c>
-      <c r="J1" s="243" t="s">
+      <c r="J1" s="212" t="s">
         <v>2507</v>
       </c>
-      <c r="K1" s="243" t="s">
+      <c r="K1" s="212" t="s">
         <v>2495</v>
       </c>
-      <c r="L1" s="243" t="s">
+      <c r="L1" s="212" t="s">
         <v>2496</v>
       </c>
-      <c r="M1" s="243" t="s">
+      <c r="M1" s="212" t="s">
         <v>562</v>
       </c>
-      <c r="N1" s="243" t="s">
+      <c r="N1" s="212" t="s">
         <v>2497</v>
       </c>
-      <c r="O1" s="243" t="s">
+      <c r="O1" s="212" t="s">
         <v>1741</v>
       </c>
-      <c r="P1" s="243" t="s">
+      <c r="P1" s="212" t="s">
         <v>1742</v>
       </c>
-      <c r="Q1" s="243" t="s">
+      <c r="Q1" s="212" t="s">
+        <v>2609</v>
+      </c>
+      <c r="R1" s="212" t="s">
         <v>2610</v>
       </c>
-      <c r="R1" s="243" t="s">
+      <c r="S1" s="212" t="s">
         <v>2611</v>
       </c>
-      <c r="S1" s="243" t="s">
-        <v>2612</v>
-      </c>
-      <c r="T1" s="243" t="s">
+      <c r="T1" s="212" t="s">
         <v>2508</v>
       </c>
-      <c r="U1" s="243" t="s">
+      <c r="U1" s="212" t="s">
         <v>2509</v>
       </c>
-      <c r="V1" s="243" t="s">
+      <c r="V1" s="212" t="s">
         <v>2510</v>
       </c>
-      <c r="W1" s="243" t="s">
+      <c r="W1" s="212" t="s">
         <v>2511</v>
       </c>
-      <c r="X1" s="243" t="s">
+      <c r="X1" s="212" t="s">
         <v>2512</v>
       </c>
-      <c r="Y1" s="244" t="s">
+      <c r="Y1" s="213" t="s">
         <v>2498</v>
       </c>
-      <c r="Z1" s="244" t="s">
+      <c r="Z1" s="213" t="s">
         <v>2499</v>
       </c>
-      <c r="AA1" s="244" t="s">
+      <c r="AA1" s="213" t="s">
         <v>2500</v>
       </c>
-      <c r="AB1" s="244" t="s">
+      <c r="AB1" s="213" t="s">
         <v>2501</v>
       </c>
-      <c r="AC1" s="244" t="s">
+      <c r="AC1" s="213" t="s">
         <v>2502</v>
       </c>
-      <c r="AD1" s="244" t="s">
+      <c r="AD1" s="213" t="s">
         <v>2503</v>
       </c>
-      <c r="AE1" s="244" t="s">
+      <c r="AE1" s="213" t="s">
         <v>2504</v>
       </c>
-      <c r="AF1" s="244" t="s">
+      <c r="AF1" s="213" t="s">
         <v>2505</v>
       </c>
-      <c r="AG1" s="244" t="s">
+      <c r="AG1" s="213" t="s">
         <v>2506</v>
       </c>
-      <c r="AH1" s="243" t="s">
+      <c r="AH1" s="212" t="s">
         <v>1772</v>
       </c>
-      <c r="AI1" s="243" t="s">
+      <c r="AI1" s="212" t="s">
         <v>1773</v>
       </c>
-      <c r="AJ1" s="243" t="s">
+      <c r="AJ1" s="212" t="s">
         <v>1774</v>
       </c>
-      <c r="AK1" s="243" t="s">
+      <c r="AK1" s="212" t="s">
         <v>1775</v>
       </c>
-      <c r="AL1" s="243" t="s">
+      <c r="AL1" s="212" t="s">
         <v>1776</v>
       </c>
-      <c r="AM1" s="243" t="s">
+      <c r="AM1" s="212" t="s">
         <v>1777</v>
       </c>
-      <c r="AN1" s="243" t="s">
+      <c r="AN1" s="212" t="s">
         <v>1778</v>
       </c>
-      <c r="AO1" s="243" t="s">
+      <c r="AO1" s="212" t="s">
         <v>1779</v>
       </c>
-      <c r="AP1" s="245" t="s">
+      <c r="AP1" s="214" t="s">
         <v>2576</v>
       </c>
-      <c r="AQ1" s="243" t="s">
+      <c r="AQ1" s="212" t="s">
         <v>1983</v>
       </c>
-      <c r="AR1" s="243" t="s">
+      <c r="AR1" s="212" t="s">
         <v>1988</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A2" s="242" t="s">
+      <c r="AS1" s="194" t="s">
+        <v>2896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A2" s="211" t="s">
         <v>307</v>
       </c>
       <c r="B2" s="201">
@@ -31307,9 +31983,12 @@
       <c r="AR2" s="204">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A3" s="242" t="s">
+      <c r="AS2" s="168" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A3" s="211" t="s">
         <v>291</v>
       </c>
       <c r="B3" s="201">
@@ -31425,9 +32104,12 @@
       <c r="AR3" s="204">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A4" s="242" t="s">
+      <c r="AS3" s="168" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A4" s="211" t="s">
         <v>314</v>
       </c>
       <c r="B4" s="201">
@@ -31543,9 +32225,12 @@
       <c r="AR4" s="204">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A5" s="242" t="s">
+      <c r="AS4" s="168" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A5" s="211" t="s">
         <v>315</v>
       </c>
       <c r="B5" s="201">
@@ -31661,9 +32346,12 @@
       <c r="AR5" s="204">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A6" s="242" t="s">
+      <c r="AS5" s="168" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A6" s="211" t="s">
         <v>321</v>
       </c>
       <c r="B6" s="201">
@@ -31785,9 +32473,12 @@
       <c r="AR6" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A7" s="242" t="s">
+      <c r="AS6" s="168" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A7" s="211" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="201">
@@ -31907,9 +32598,12 @@
       <c r="AR7" s="204">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A8" s="242" t="s">
+      <c r="AS7" s="168" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A8" s="211" t="s">
         <v>323</v>
       </c>
       <c r="B8" s="201">
@@ -32027,9 +32721,12 @@
       <c r="AR8" s="204">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A9" s="242" t="s">
+      <c r="AS8" s="168" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A9" s="211" t="s">
         <v>297</v>
       </c>
       <c r="B9" s="201">
@@ -32145,9 +32842,12 @@
       <c r="AR9" s="204">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A10" s="242" t="s">
+      <c r="AS9" s="168" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A10" s="211" t="s">
         <v>296</v>
       </c>
       <c r="B10" s="201">
@@ -32261,9 +32961,12 @@
       <c r="AR10" s="204">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A11" s="242" t="s">
+      <c r="AS10" s="168" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A11" s="211" t="s">
         <v>303</v>
       </c>
       <c r="B11" s="201">
@@ -32373,9 +33076,12 @@
       <c r="AR11" s="204">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A12" s="242" t="s">
+      <c r="AS11" s="168" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A12" s="211" t="s">
         <v>359</v>
       </c>
       <c r="B12" s="201">
@@ -32467,9 +33173,12 @@
       <c r="AR12" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A13" s="242" t="s">
+      <c r="AS12" s="168" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A13" s="211" t="s">
         <v>360</v>
       </c>
       <c r="B13" s="201">
@@ -32571,9 +33280,12 @@
       <c r="AR13" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A14" s="242" t="s">
+      <c r="AS13" s="168" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A14" s="211" t="s">
         <v>361</v>
       </c>
       <c r="B14" s="201">
@@ -32681,9 +33393,12 @@
       <c r="AR14" s="204">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A15" s="242" t="s">
+      <c r="AS14" s="168" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A15" s="211" t="s">
         <v>362</v>
       </c>
       <c r="B15" s="201">
@@ -32783,9 +33498,12 @@
       <c r="AR15" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A16" s="242" t="s">
+      <c r="AS15" s="168" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A16" s="211" t="s">
         <v>363</v>
       </c>
       <c r="B16" s="201">
@@ -32897,9 +33615,12 @@
       <c r="AR16" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A17" s="242" t="s">
+      <c r="AS16" s="168" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A17" s="211" t="s">
         <v>332</v>
       </c>
       <c r="B17" s="201">
@@ -33001,9 +33722,12 @@
       <c r="AR17" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A18" s="242" t="s">
+      <c r="AS17" s="168" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A18" s="211" t="s">
         <v>330</v>
       </c>
       <c r="B18" s="201">
@@ -33103,9 +33827,12 @@
       <c r="AR18" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A19" s="242" t="s">
+      <c r="AS18" s="168" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A19" s="211" t="s">
         <v>331</v>
       </c>
       <c r="B19" s="201">
@@ -33205,9 +33932,12 @@
       <c r="AR19" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A20" s="242" t="s">
+      <c r="AS19" s="168" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A20" s="211" t="s">
         <v>333</v>
       </c>
       <c r="B20" s="201">
@@ -33309,9 +34039,12 @@
       <c r="AR20" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A21" s="242" t="s">
+      <c r="AS20" s="168" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A21" s="211" t="s">
         <v>334</v>
       </c>
       <c r="B21" s="201">
@@ -33409,9 +34142,12 @@
       <c r="AR21" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A22" s="242" t="s">
+      <c r="AS21" s="168" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A22" s="211" t="s">
         <v>377</v>
       </c>
       <c r="B22" s="201">
@@ -33513,9 +34249,12 @@
       <c r="AR22" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A23" s="242" t="s">
+      <c r="AS22" s="168" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A23" s="211" t="s">
         <v>378</v>
       </c>
       <c r="B23" s="201">
@@ -33615,9 +34354,12 @@
       <c r="AR23" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A24" s="242" t="s">
+      <c r="AS23" s="168" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A24" s="211" t="s">
         <v>375</v>
       </c>
       <c r="B24" s="201">
@@ -33717,9 +34459,12 @@
       <c r="AR24" s="204">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A25" s="242" t="s">
+      <c r="AS24" s="168" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A25" s="211" t="s">
         <v>376</v>
       </c>
       <c r="B25" s="201">
@@ -33819,9 +34564,12 @@
       <c r="AR25" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A26" s="242" t="s">
+      <c r="AS25" s="168" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A26" s="211" t="s">
         <v>385</v>
       </c>
       <c r="B26" s="201">
@@ -33933,9 +34681,12 @@
       <c r="AR26" s="204">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A27" s="242" t="s">
+      <c r="AS26" s="168" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A27" s="211" t="s">
         <v>384</v>
       </c>
       <c r="B27" s="201">
@@ -34037,9 +34788,12 @@
       <c r="AR27" s="204">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A28" s="242" t="s">
+      <c r="AS27" s="168" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A28" s="211" t="s">
         <v>386</v>
       </c>
       <c r="B28" s="201">
@@ -34137,9 +34891,12 @@
       <c r="AR28" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A29" s="242" t="s">
+      <c r="AS28" s="168" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A29" s="211" t="s">
         <v>393</v>
       </c>
       <c r="B29" s="201">
@@ -34243,9 +35000,12 @@
       <c r="AR29" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A30" s="242" t="s">
+      <c r="AS29" s="168" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A30" s="211" t="s">
         <v>395</v>
       </c>
       <c r="B30" s="201">
@@ -34347,9 +35107,12 @@
       <c r="AR30" s="204">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A31" s="242" t="s">
+      <c r="AS30" s="168" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A31" s="211" t="s">
         <v>394</v>
       </c>
       <c r="B31" s="201">
@@ -34447,9 +35210,12 @@
       <c r="AR31" s="204">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A32" s="242" t="s">
+      <c r="AS31" s="168" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="32" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A32" s="211" t="s">
         <v>392</v>
       </c>
       <c r="B32" s="201">
@@ -34551,9 +35317,12 @@
         <v>14</v>
       </c>
       <c r="AR32" s="204"/>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A33" s="242" t="s">
+      <c r="AS32" s="168" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A33" s="211" t="s">
         <v>342</v>
       </c>
       <c r="B33" s="201">
@@ -34661,9 +35430,12 @@
       <c r="AR33" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A34" s="242" t="s">
+      <c r="AS33" s="168" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A34" s="211" t="s">
         <v>344</v>
       </c>
       <c r="B34" s="201">
@@ -34765,9 +35537,12 @@
       <c r="AR34" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A35" s="242" t="s">
+      <c r="AS34" s="168" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A35" s="211" t="s">
         <v>401</v>
       </c>
       <c r="B35" s="201">
@@ -34867,9 +35642,12 @@
       <c r="AR35" s="204">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A36" s="242" t="s">
+      <c r="AS35" s="168" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A36" s="211" t="s">
         <v>400</v>
       </c>
       <c r="B36" s="201">
@@ -34967,9 +35745,12 @@
       </c>
       <c r="AQ36" s="204"/>
       <c r="AR36" s="204"/>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A37" s="242" t="s">
+      <c r="AS36" s="168" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A37" s="211" t="s">
         <v>402</v>
       </c>
       <c r="B37" s="201">
@@ -35067,9 +35848,12 @@
       <c r="AR37" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A38" s="242" t="s">
+      <c r="AS37" s="168" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A38" s="211" t="s">
         <v>403</v>
       </c>
       <c r="B38" s="201">
@@ -35165,9 +35949,12 @@
       </c>
       <c r="AQ38" s="204"/>
       <c r="AR38" s="204"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A39" s="242" t="s">
+      <c r="AS38" s="168" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A39" s="211" t="s">
         <v>353</v>
       </c>
       <c r="B39" s="201">
@@ -35265,9 +36052,12 @@
       <c r="AR39" s="204">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A40" s="242" t="s">
+      <c r="AS39" s="168" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A40" s="211" t="s">
         <v>354</v>
       </c>
       <c r="B40" s="201">
@@ -35365,9 +36155,12 @@
       </c>
       <c r="AQ40" s="204"/>
       <c r="AR40" s="204"/>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A41" s="242" t="s">
+      <c r="AS40" s="168" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A41" s="211" t="s">
         <v>433</v>
       </c>
       <c r="B41" s="201">
@@ -35467,9 +36260,12 @@
       </c>
       <c r="AQ41" s="204"/>
       <c r="AR41" s="204"/>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A42" s="242" t="s">
+      <c r="AS41" s="168" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A42" s="211" t="s">
         <v>430</v>
       </c>
       <c r="B42" s="201">
@@ -35567,9 +36363,12 @@
       </c>
       <c r="AQ42" s="204"/>
       <c r="AR42" s="204"/>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A43" s="242" t="s">
+      <c r="AS42" s="168" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A43" s="211" t="s">
         <v>431</v>
       </c>
       <c r="B43" s="201">
@@ -35669,9 +36468,12 @@
         <v>1</v>
       </c>
       <c r="AR43" s="204"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A44" s="242" t="s">
+      <c r="AS43" s="168" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A44" s="211" t="s">
         <v>434</v>
       </c>
       <c r="B44" s="201">
@@ -35771,9 +36573,12 @@
         <v>1</v>
       </c>
       <c r="AR44" s="204"/>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A45" s="242" t="s">
+      <c r="AS44" s="168" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A45" s="211" t="s">
         <v>435</v>
       </c>
       <c r="B45" s="201">
@@ -35871,9 +36676,12 @@
       </c>
       <c r="AQ45" s="204"/>
       <c r="AR45" s="204"/>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A46" s="242" t="s">
+      <c r="AS45" s="168" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A46" s="211" t="s">
         <v>413</v>
       </c>
       <c r="B46" s="201">
@@ -35973,9 +36781,12 @@
       </c>
       <c r="AQ46" s="204"/>
       <c r="AR46" s="204"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A47" s="242" t="s">
+      <c r="AS46" s="168" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A47" s="211" t="s">
         <v>415</v>
       </c>
       <c r="B47" s="201">
@@ -36073,9 +36884,12 @@
       </c>
       <c r="AQ47" s="204"/>
       <c r="AR47" s="204"/>
-    </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A48" s="242" t="s">
+      <c r="AS47" s="168" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A48" s="211" t="s">
         <v>414</v>
       </c>
       <c r="B48" s="201">
@@ -36171,9 +36985,12 @@
       </c>
       <c r="AQ48" s="204"/>
       <c r="AR48" s="204"/>
-    </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A49" s="242" t="s">
+      <c r="AS48" s="168" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A49" s="211" t="s">
         <v>442</v>
       </c>
       <c r="B49" s="201">
@@ -36273,9 +37090,12 @@
         <v>4</v>
       </c>
       <c r="AR49" s="204"/>
-    </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A50" s="242" t="s">
+      <c r="AS49" s="168" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A50" s="211" t="s">
         <v>443</v>
       </c>
       <c r="B50" s="201">
@@ -36375,9 +37195,12 @@
       </c>
       <c r="AQ50" s="204"/>
       <c r="AR50" s="204"/>
-    </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A51" s="242" t="s">
+      <c r="AS50" s="168" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A51" s="211" t="s">
         <v>441</v>
       </c>
       <c r="B51" s="201">
@@ -36477,9 +37300,12 @@
       </c>
       <c r="AQ51" s="204"/>
       <c r="AR51" s="204"/>
-    </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A52" s="242" t="s">
+      <c r="AS51" s="168" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A52" s="211" t="s">
         <v>447</v>
       </c>
       <c r="B52" s="201">
@@ -36579,9 +37405,12 @@
       </c>
       <c r="AQ52" s="204"/>
       <c r="AR52" s="204"/>
-    </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A53" s="242" t="s">
+      <c r="AS52" s="168" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A53" s="211" t="s">
         <v>448</v>
       </c>
       <c r="B53" s="201">
@@ -36677,9 +37506,12 @@
       </c>
       <c r="AQ53" s="204"/>
       <c r="AR53" s="204"/>
-    </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A54" s="242" t="s">
+      <c r="AS53" s="168" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A54" s="211" t="s">
         <v>446</v>
       </c>
       <c r="B54" s="201">
@@ -36779,9 +37611,12 @@
         <v>1</v>
       </c>
       <c r="AR54" s="204"/>
-    </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A55" s="242" t="s">
+      <c r="AS54" s="168" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A55" s="211" t="s">
         <v>452</v>
       </c>
       <c r="B55" s="201">
@@ -36883,9 +37718,12 @@
         <v>4</v>
       </c>
       <c r="AR55" s="204"/>
-    </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A56" s="242" t="s">
+      <c r="AS55" s="168" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A56" s="211" t="s">
         <v>451</v>
       </c>
       <c r="B56" s="201">
@@ -36985,9 +37823,12 @@
       </c>
       <c r="AQ56" s="204"/>
       <c r="AR56" s="204"/>
-    </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A57" s="242" t="s">
+      <c r="AS56" s="168" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A57" s="211" t="s">
         <v>420</v>
       </c>
       <c r="B57" s="201">
@@ -37087,9 +37928,12 @@
       </c>
       <c r="AQ57" s="204"/>
       <c r="AR57" s="204"/>
-    </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A58" s="242" t="s">
+      <c r="AS57" s="168" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="58" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A58" s="211" t="s">
         <v>421</v>
       </c>
       <c r="B58" s="201">
@@ -37189,9 +38033,12 @@
       </c>
       <c r="AQ58" s="204"/>
       <c r="AR58" s="204"/>
-    </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A59" s="242" t="s">
+      <c r="AS58" s="168" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A59" s="211" t="s">
         <v>454</v>
       </c>
       <c r="B59" s="201">
@@ -37287,9 +38134,12 @@
       </c>
       <c r="AQ59" s="204"/>
       <c r="AR59" s="204"/>
-    </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A60" s="242" t="s">
+      <c r="AS59" s="168" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="60" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A60" s="211" t="s">
         <v>456</v>
       </c>
       <c r="B60" s="201">
@@ -37385,9 +38235,12 @@
       </c>
       <c r="AQ60" s="204"/>
       <c r="AR60" s="204"/>
-    </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A61" s="242" t="s">
+      <c r="AS60" s="168" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A61" s="211" t="s">
         <v>455</v>
       </c>
       <c r="B61" s="201">
@@ -37485,9 +38338,12 @@
       <c r="AR61" s="204">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A62" s="242" t="s">
+      <c r="AS61" s="168" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A62" s="211" t="s">
         <v>425</v>
       </c>
       <c r="B62" s="201">
@@ -37589,9 +38445,12 @@
         <v>4</v>
       </c>
       <c r="AR62" s="204"/>
-    </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A63" s="242" t="s">
+      <c r="AS62" s="168" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A63" s="211" t="s">
         <v>426</v>
       </c>
       <c r="B63" s="201">
@@ -37691,9 +38550,12 @@
         <v>2</v>
       </c>
       <c r="AR63" s="204"/>
-    </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A64" s="242" t="s">
+      <c r="AS63" s="168" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A64" s="211" t="s">
         <v>427</v>
       </c>
       <c r="B64" s="201">
@@ -37791,9 +38653,12 @@
       </c>
       <c r="AQ64" s="204"/>
       <c r="AR64" s="204"/>
-    </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A65" s="242" t="s">
+      <c r="AS64" s="168" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A65" s="211" t="s">
         <v>467</v>
       </c>
       <c r="B65" s="201">
@@ -37887,9 +38752,12 @@
       </c>
       <c r="AQ65" s="204"/>
       <c r="AR65" s="204"/>
-    </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A66" s="242" t="s">
+      <c r="AS65" s="168" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="66" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A66" s="211" t="s">
         <v>459</v>
       </c>
       <c r="B66" s="201">
@@ -37983,9 +38851,12 @@
       </c>
       <c r="AQ66" s="204"/>
       <c r="AR66" s="204"/>
-    </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A67" s="242" t="s">
+      <c r="AS66" s="168" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A67" s="211" t="s">
         <v>461</v>
       </c>
       <c r="B67" s="201">
@@ -38043,7 +38914,7 @@
         <v>2514</v>
       </c>
       <c r="V67" s="198" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="W67" s="198" t="s">
         <v>2544</v>
@@ -38077,9 +38948,12 @@
       </c>
       <c r="AQ67" s="204"/>
       <c r="AR67" s="204"/>
-    </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A68" s="242" t="s">
+      <c r="AS67" s="168" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A68" s="211" t="s">
         <v>470</v>
       </c>
       <c r="B68" s="201">
@@ -38171,9 +39045,12 @@
       </c>
       <c r="AQ68" s="204"/>
       <c r="AR68" s="204"/>
-    </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A69" s="242" t="s">
+      <c r="AS68" s="168" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A69" s="211" t="s">
         <v>471</v>
       </c>
       <c r="B69" s="201">
@@ -38267,9 +39144,12 @@
       </c>
       <c r="AQ69" s="204"/>
       <c r="AR69" s="204"/>
-    </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A70" s="242" t="s">
+      <c r="AS69" s="168" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="70" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A70" s="211" t="s">
         <v>473</v>
       </c>
       <c r="B70" s="201">
@@ -38363,9 +39243,12 @@
       </c>
       <c r="AQ70" s="204"/>
       <c r="AR70" s="204"/>
-    </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A71" s="242" t="s">
+      <c r="AS70" s="168" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="71" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A71" s="211" t="s">
         <v>474</v>
       </c>
       <c r="B71" s="201">
@@ -38461,9 +39344,12 @@
         <v>1</v>
       </c>
       <c r="AR71" s="204"/>
-    </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A72" s="242" t="s">
+      <c r="AS71" s="168" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="72" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A72" s="211" t="s">
         <v>475</v>
       </c>
       <c r="B72" s="201">
@@ -38557,9 +39443,12 @@
       </c>
       <c r="AQ72" s="204"/>
       <c r="AR72" s="204"/>
-    </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A73" s="242" t="s">
+      <c r="AS72" s="168" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="73" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A73" s="211" t="s">
         <v>462</v>
       </c>
       <c r="B73" s="201">
@@ -38651,9 +39540,12 @@
       </c>
       <c r="AQ73" s="204"/>
       <c r="AR73" s="204"/>
-    </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A74" s="242" t="s">
+      <c r="AS73" s="168" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A74" s="211" t="s">
         <v>463</v>
       </c>
       <c r="B74" s="201">
@@ -38747,9 +39639,12 @@
       </c>
       <c r="AQ74" s="204"/>
       <c r="AR74" s="204"/>
-    </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A75" s="242" t="s">
+      <c r="AS74" s="168" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A75" s="211" t="s">
         <v>466</v>
       </c>
       <c r="B75" s="201">
@@ -38841,9 +39736,12 @@
       </c>
       <c r="AQ75" s="204"/>
       <c r="AR75" s="204"/>
-    </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A76" s="242" t="s">
+      <c r="AS75" s="168" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A76" s="211" t="s">
         <v>465</v>
       </c>
       <c r="B76" s="201">
@@ -38937,9 +39835,12 @@
       </c>
       <c r="AQ76" s="204"/>
       <c r="AR76" s="204"/>
-    </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A77" s="242" t="s">
+      <c r="AS76" s="168" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A77" s="211" t="s">
         <v>464</v>
       </c>
       <c r="B77" s="201">
@@ -39033,9 +39934,12 @@
       </c>
       <c r="AQ77" s="204"/>
       <c r="AR77" s="204"/>
-    </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A78" s="242" t="s">
+      <c r="AS77" s="168" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A78" s="211" t="s">
         <v>476</v>
       </c>
       <c r="B78" s="201">
@@ -39123,9 +40027,12 @@
       </c>
       <c r="AQ78" s="204"/>
       <c r="AR78" s="204"/>
-    </row>
-    <row r="79" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A79" s="242" t="s">
+      <c r="AS78" s="168" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A79" s="211" t="s">
         <v>480</v>
       </c>
       <c r="B79" s="201">
@@ -39213,9 +40120,12 @@
       </c>
       <c r="AQ79" s="204"/>
       <c r="AR79" s="204"/>
-    </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A80" s="242" t="s">
+      <c r="AS79" s="168" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A80" s="211" t="s">
         <v>477</v>
       </c>
       <c r="B80" s="201">
@@ -39303,9 +40213,12 @@
       </c>
       <c r="AQ80" s="204"/>
       <c r="AR80" s="204"/>
-    </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A81" s="242" t="s">
+      <c r="AS80" s="168" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A81" s="211" t="s">
         <v>478</v>
       </c>
       <c r="B81" s="201">
@@ -39393,9 +40306,12 @@
       </c>
       <c r="AQ81" s="204"/>
       <c r="AR81" s="204"/>
-    </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A82" s="242" t="s">
+      <c r="AS81" s="168" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A82" s="211" t="s">
         <v>479</v>
       </c>
       <c r="B82" s="201">
@@ -39483,9 +40399,12 @@
       </c>
       <c r="AQ82" s="204"/>
       <c r="AR82" s="204"/>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A83" s="242" t="s">
+      <c r="AS82" s="168" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A83" s="211" t="s">
         <v>481</v>
       </c>
       <c r="B83" s="201">
@@ -39575,9 +40494,12 @@
       <c r="AR83" s="204">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A84" s="242" t="s">
+      <c r="AS83" s="168" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A84" s="211" t="s">
         <v>482</v>
       </c>
       <c r="B84" s="201">
@@ -39667,9 +40589,12 @@
       <c r="AR84" s="204">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A85" s="242" t="s">
+      <c r="AS84" s="168" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A85" s="211" t="s">
         <v>460</v>
       </c>
       <c r="B85" s="201">
@@ -39763,9 +40688,12 @@
       </c>
       <c r="AQ85" s="204"/>
       <c r="AR85" s="204"/>
-    </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A86" s="242" t="s">
+      <c r="AS85" s="168" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A86" s="211" t="s">
         <v>1984</v>
       </c>
       <c r="B86" s="201">
@@ -39879,9 +40807,12 @@
       <c r="AR86" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A87" s="242" t="s">
+      <c r="AS86" s="168" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A87" s="211" t="s">
         <v>343</v>
       </c>
       <c r="B87" s="201">
@@ -39979,9 +40910,12 @@
       </c>
       <c r="AQ87" s="204"/>
       <c r="AR87" s="204"/>
-    </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A88" s="242" t="s">
+      <c r="AS87" s="168" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A88" s="211" t="s">
         <v>355</v>
       </c>
       <c r="B88" s="201">
@@ -40081,9 +41015,12 @@
       </c>
       <c r="AQ88" s="204"/>
       <c r="AR88" s="204"/>
-    </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A89" s="242" t="s">
+      <c r="AS88" s="168" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A89" s="211" t="s">
         <v>432</v>
       </c>
       <c r="B89" s="201">
@@ -40181,9 +41118,12 @@
       </c>
       <c r="AQ89" s="204"/>
       <c r="AR89" s="204"/>
-    </row>
-    <row r="90" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A90" s="242" t="s">
+      <c r="AS89" s="168" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A90" s="211" t="s">
         <v>468</v>
       </c>
       <c r="B90" s="201">
@@ -40277,9 +41217,12 @@
       </c>
       <c r="AQ90" s="204"/>
       <c r="AR90" s="204"/>
-    </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A91" s="242" t="s">
+      <c r="AS90" s="168" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A91" s="211" t="s">
         <v>306</v>
       </c>
       <c r="B91" s="201">
@@ -40389,9 +41332,12 @@
       <c r="AR91" s="204">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A92" s="242" t="s">
+      <c r="AS91" s="168" t="s">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A92" s="211" t="s">
         <v>364</v>
       </c>
       <c r="B92" s="201">
@@ -40493,9 +41439,12 @@
       <c r="AR92" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A93" s="242" t="s">
+      <c r="AS92" s="168" t="s">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A93" s="211" t="s">
         <v>422</v>
       </c>
       <c r="B93" s="201">
@@ -40595,9 +41544,12 @@
       </c>
       <c r="AQ93" s="204"/>
       <c r="AR93" s="204"/>
-    </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A94" s="242" t="s">
+      <c r="AS93" s="168" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A94" s="211" t="s">
         <v>469</v>
       </c>
       <c r="B94" s="201">
@@ -40691,9 +41643,12 @@
       </c>
       <c r="AQ94" s="204"/>
       <c r="AR94" s="204"/>
-    </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A95" s="242" t="s">
+      <c r="AS94" s="168" t="s">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A95" s="211" t="s">
         <v>472</v>
       </c>
       <c r="B95" s="201">
@@ -40787,9 +41742,12 @@
       </c>
       <c r="AQ95" s="204"/>
       <c r="AR95" s="204"/>
-    </row>
-    <row r="96" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A96" s="242" t="s">
+      <c r="AS95" s="168" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A96" s="211" t="s">
         <v>292</v>
       </c>
       <c r="B96" s="201">
@@ -40903,9 +41861,12 @@
       <c r="AR96" s="204">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A97" s="242" t="s">
+      <c r="AS96" s="168" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A97" s="211" t="s">
         <v>387</v>
       </c>
       <c r="B97" s="201">
@@ -41005,9 +41966,12 @@
       <c r="AR97" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A98" s="242" t="s">
+      <c r="AS97" s="168" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A98" s="211" t="s">
         <v>396</v>
       </c>
       <c r="B98" s="201">
@@ -41109,9 +42073,12 @@
       <c r="AR98" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A99" s="242" t="s">
+      <c r="AS98" s="168" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="99" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A99" s="211" t="s">
         <v>449</v>
       </c>
       <c r="B99" s="201">
@@ -41211,9 +42178,12 @@
       </c>
       <c r="AQ99" s="204"/>
       <c r="AR99" s="204"/>
-    </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A100" s="242" t="s">
+      <c r="AS99" s="168" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A100" s="211" t="s">
         <v>308</v>
       </c>
       <c r="B100" s="201">
@@ -41335,9 +42305,12 @@
       <c r="AR100" s="204">
         <v>9</v>
       </c>
-    </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A101" s="242" t="s">
+      <c r="AS100" s="168" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="101" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A101" s="211" t="s">
         <v>365</v>
       </c>
       <c r="B101" s="201">
@@ -41447,9 +42420,12 @@
       <c r="AR101" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A102" s="242" t="s">
+      <c r="AS101" s="168" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A102" s="211" t="s">
         <v>428</v>
       </c>
       <c r="B102" s="201">
@@ -41553,9 +42529,12 @@
       <c r="AR102" s="204">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A103" s="242" t="s">
+      <c r="AS102" s="168" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="103" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A103" s="211" t="s">
         <v>444</v>
       </c>
       <c r="B103" s="201">
@@ -41655,9 +42634,12 @@
       </c>
       <c r="AQ103" s="204"/>
       <c r="AR103" s="204"/>
-    </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A104" s="242" t="s">
+      <c r="AS103" s="168" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="104" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A104" s="211" t="s">
         <v>324</v>
       </c>
       <c r="B104" s="201">
@@ -41775,9 +42757,12 @@
       <c r="AR104" s="204">
         <v>31</v>
       </c>
-    </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A105" s="242" t="s">
+      <c r="AS104" s="168" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="105" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A105" s="211" t="s">
         <v>366</v>
       </c>
       <c r="B105" s="201">
@@ -41875,9 +42860,12 @@
       <c r="AR105" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A106" s="242" t="s">
+      <c r="AS105" s="168" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="106" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A106" s="211" t="s">
         <v>335</v>
       </c>
       <c r="B106" s="201">
@@ -41981,9 +42969,12 @@
       <c r="AR106" s="204">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A107" s="242" t="s">
+      <c r="AS106" s="168" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="107" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A107" s="211" t="s">
         <v>416</v>
       </c>
       <c r="B107" s="201">
@@ -42083,9 +43074,12 @@
       </c>
       <c r="AQ107" s="204"/>
       <c r="AR107" s="204"/>
-    </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A108" s="242" t="s">
+      <c r="AS107" s="168" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="108" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A108" s="211" t="s">
         <v>388</v>
       </c>
       <c r="B108" s="201">
@@ -42187,9 +43181,12 @@
       <c r="AR108" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A109" s="242" t="s">
+      <c r="AS108" s="168" t="s">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="109" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A109" s="211" t="s">
         <v>457</v>
       </c>
       <c r="B109" s="201">
@@ -42287,9 +43284,12 @@
       </c>
       <c r="AQ109" s="204"/>
       <c r="AR109" s="204"/>
-    </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A110" s="242" t="s">
+      <c r="AS109" s="168" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="110" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A110" s="211" t="s">
         <v>298</v>
       </c>
       <c r="B110" s="201">
@@ -42407,9 +43407,12 @@
       <c r="AR110" s="204">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A111" s="242" t="s">
+      <c r="AS110" s="168" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="111" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A111" s="211" t="s">
         <v>379</v>
       </c>
       <c r="B111" s="201">
@@ -42511,9 +43514,12 @@
       <c r="AR111" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A112" s="242" t="s">
+      <c r="AS111" s="168" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="112" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A112" s="211" t="s">
         <v>404</v>
       </c>
       <c r="B112" s="201">
@@ -42611,9 +43617,12 @@
       </c>
       <c r="AQ112" s="204"/>
       <c r="AR112" s="204"/>
-    </row>
-    <row r="113" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A113" s="242" t="s">
+      <c r="AS112" s="168" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="113" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A113" s="211" t="s">
         <v>412</v>
       </c>
       <c r="B113" s="201">
@@ -42711,9 +43720,12 @@
       </c>
       <c r="AQ113" s="204"/>
       <c r="AR113" s="204"/>
-    </row>
-    <row r="114" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A114" s="242" t="s">
+      <c r="AS113" s="168" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="114" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A114" s="211" t="s">
         <v>367</v>
       </c>
       <c r="B114" s="201">
@@ -42815,9 +43827,12 @@
       <c r="AR114" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A115" s="242" t="s">
+      <c r="AS114" s="168" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="115" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A115" s="211" t="s">
         <v>356</v>
       </c>
       <c r="B115" s="201">
@@ -42917,9 +43932,12 @@
       </c>
       <c r="AQ115" s="204"/>
       <c r="AR115" s="204"/>
-    </row>
-    <row r="116" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A116" s="242" t="s">
+      <c r="AS115" s="168" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="116" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A116" s="211" t="s">
         <v>309</v>
       </c>
       <c r="B116" s="201">
@@ -43033,9 +44051,12 @@
       <c r="AR116" s="204">
         <v>15</v>
       </c>
-    </row>
-    <row r="117" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A117" s="242" t="s">
+      <c r="AS116" s="168" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="117" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A117" s="211" t="s">
         <v>336</v>
       </c>
       <c r="B117" s="201">
@@ -43135,9 +44156,12 @@
       <c r="AR117" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A118" s="242" t="s">
+      <c r="AS117" s="168" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="118" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A118" s="211" t="s">
         <v>417</v>
       </c>
       <c r="B118" s="201">
@@ -43239,9 +44263,12 @@
         <v>1</v>
       </c>
       <c r="AR118" s="204"/>
-    </row>
-    <row r="119" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A119" s="242" t="s">
+      <c r="AS118" s="168" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="119" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A119" s="211" t="s">
         <v>405</v>
       </c>
       <c r="B119" s="201">
@@ -43339,9 +44366,12 @@
         <v>1</v>
       </c>
       <c r="AR119" s="204"/>
-    </row>
-    <row r="120" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A120" s="242" t="s">
+      <c r="AS119" s="168" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="120" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A120" s="211" t="s">
         <v>316</v>
       </c>
       <c r="B120" s="201">
@@ -43459,9 +44489,12 @@
       <c r="AR120" s="204">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A121" s="242" t="s">
+      <c r="AS120" s="168" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="121" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A121" s="211" t="s">
         <v>326</v>
       </c>
       <c r="B121" s="201">
@@ -43585,9 +44618,12 @@
       <c r="AR121" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A122" s="242" t="s">
+      <c r="AS121" s="168" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="122" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A122" s="211" t="s">
         <v>380</v>
       </c>
       <c r="B122" s="201">
@@ -43689,9 +44725,12 @@
       <c r="AR122" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A123" s="242" t="s">
+      <c r="AS122" s="168" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="123" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A123" s="211" t="s">
         <v>299</v>
       </c>
       <c r="B123" s="201">
@@ -43807,9 +44846,12 @@
       <c r="AR123" s="204">
         <v>21</v>
       </c>
-    </row>
-    <row r="124" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A124" s="242" t="s">
+      <c r="AS123" s="168" t="s">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="124" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A124" s="211" t="s">
         <v>345</v>
       </c>
       <c r="B124" s="201">
@@ -43909,9 +44951,12 @@
       </c>
       <c r="AQ124" s="204"/>
       <c r="AR124" s="204"/>
-    </row>
-    <row r="125" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A125" s="242" t="s">
+      <c r="AS124" s="168" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="125" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A125" s="211" t="s">
         <v>450</v>
       </c>
       <c r="B125" s="201">
@@ -44009,9 +45054,12 @@
       </c>
       <c r="AQ125" s="204"/>
       <c r="AR125" s="204"/>
-    </row>
-    <row r="126" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A126" s="242" t="s">
+      <c r="AS125" s="168" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="126" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A126" s="211" t="s">
         <v>304</v>
       </c>
       <c r="B126" s="201">
@@ -44123,9 +45171,12 @@
       <c r="AR126" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A127" s="242" t="s">
+      <c r="AS126" s="168" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="127" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A127" s="211" t="s">
         <v>368</v>
       </c>
       <c r="B127" s="201">
@@ -44223,9 +45274,12 @@
       <c r="AR127" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A128" s="242" t="s">
+      <c r="AS127" s="168" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A128" s="211" t="s">
         <v>337</v>
       </c>
       <c r="B128" s="201">
@@ -44329,9 +45383,12 @@
       <c r="AR128" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A129" s="242" t="s">
+      <c r="AS128" s="168" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="129" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A129" s="211" t="s">
         <v>436</v>
       </c>
       <c r="B129" s="201">
@@ -44429,9 +45486,12 @@
       </c>
       <c r="AQ129" s="204"/>
       <c r="AR129" s="204"/>
-    </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A130" s="242" t="s">
+      <c r="AS129" s="168" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="130" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A130" s="211" t="s">
         <v>437</v>
       </c>
       <c r="B130" s="201">
@@ -44517,9 +45577,12 @@
       </c>
       <c r="AQ130" s="204"/>
       <c r="AR130" s="204"/>
-    </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A131" s="242" t="s">
+      <c r="AS130" s="168" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="131" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A131" s="211" t="s">
         <v>327</v>
       </c>
       <c r="B131" s="201">
@@ -44630,9 +45693,12 @@
       <c r="AR131" s="204">
         <v>34</v>
       </c>
-    </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A132" s="242" t="s">
+      <c r="AS131" s="168" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="132" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A132" s="211" t="s">
         <v>369</v>
       </c>
       <c r="B132" s="201">
@@ -44734,9 +45800,12 @@
       <c r="AR132" s="204">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A133" s="242" t="s">
+      <c r="AS132" s="168" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="133" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A133" s="211" t="s">
         <v>397</v>
       </c>
       <c r="B133" s="201">
@@ -44836,9 +45905,12 @@
       <c r="AR133" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A134" s="242" t="s">
+      <c r="AS133" s="168" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="134" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A134" s="211" t="s">
         <v>438</v>
       </c>
       <c r="B134" s="201">
@@ -44936,9 +46008,12 @@
         <v>3</v>
       </c>
       <c r="AR134" s="204"/>
-    </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A135" s="242" t="s">
+      <c r="AS134" s="168" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="135" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A135" s="211" t="s">
         <v>293</v>
       </c>
       <c r="B135" s="201">
@@ -45050,9 +46125,12 @@
       <c r="AR135" s="204">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A136" s="242" t="s">
+      <c r="AS135" s="168" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="136" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A136" s="211" t="s">
         <v>328</v>
       </c>
       <c r="B136" s="201">
@@ -45164,9 +46242,12 @@
       <c r="AR136" s="204">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A137" s="242" t="s">
+      <c r="AS136" s="168" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="137" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A137" s="211" t="s">
         <v>357</v>
       </c>
       <c r="B137" s="201">
@@ -45270,9 +46351,12 @@
       <c r="AR137" s="204">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A138" s="242" t="s">
+      <c r="AS137" s="168" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="138" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A138" s="211" t="s">
         <v>483</v>
       </c>
       <c r="B138" s="201">
@@ -45362,9 +46446,12 @@
       <c r="AR138" s="204">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A139" s="242" t="s">
+      <c r="AS138" s="168" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="139" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A139" s="211" t="s">
         <v>381</v>
       </c>
       <c r="B139" s="201">
@@ -45466,9 +46553,12 @@
       <c r="AR139" s="204">
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A140" s="242" t="s">
+      <c r="AS139" s="168" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="140" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A140" s="211" t="s">
         <v>398</v>
       </c>
       <c r="B140" s="201">
@@ -45570,9 +46660,12 @@
       <c r="AR140" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A141" s="242" t="s">
+      <c r="AS140" s="168" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="141" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A141" s="211" t="s">
         <v>294</v>
       </c>
       <c r="B141" s="201">
@@ -45690,9 +46783,12 @@
       <c r="AR141" s="204">
         <v>18</v>
       </c>
-    </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A142" s="242" t="s">
+      <c r="AS141" s="168" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="142" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A142" s="211" t="s">
         <v>347</v>
       </c>
       <c r="B142" s="201">
@@ -45790,9 +46886,12 @@
       </c>
       <c r="AQ142" s="204"/>
       <c r="AR142" s="204"/>
-    </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A143" s="242" t="s">
+      <c r="AS142" s="168" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="143" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A143" s="211" t="s">
         <v>346</v>
       </c>
       <c r="B143" s="201">
@@ -45890,9 +46989,12 @@
       </c>
       <c r="AQ143" s="204"/>
       <c r="AR143" s="204"/>
-    </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A144" s="242" t="s">
+      <c r="AS143" s="168" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="144" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A144" s="211" t="s">
         <v>453</v>
       </c>
       <c r="B144" s="201">
@@ -45990,9 +47092,12 @@
       </c>
       <c r="AQ144" s="204"/>
       <c r="AR144" s="204"/>
-    </row>
-    <row r="145" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A145" s="242" t="s">
+      <c r="AS144" s="168" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="145" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A145" s="211" t="s">
         <v>325</v>
       </c>
       <c r="B145" s="201">
@@ -46106,9 +47211,12 @@
       <c r="AR145" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A146" s="242" t="s">
+      <c r="AS145" s="168" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="146" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A146" s="211" t="s">
         <v>370</v>
       </c>
       <c r="B146" s="201">
@@ -46208,9 +47316,12 @@
       <c r="AR146" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A147" s="242" t="s">
+      <c r="AS146" s="168" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="147" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A147" s="211" t="s">
         <v>389</v>
       </c>
       <c r="B147" s="201">
@@ -46312,9 +47423,12 @@
       <c r="AR147" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A148" s="242" t="s">
+      <c r="AS147" s="168" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="148" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A148" s="211" t="s">
         <v>423</v>
       </c>
       <c r="B148" s="201">
@@ -46414,9 +47528,12 @@
       </c>
       <c r="AQ148" s="204"/>
       <c r="AR148" s="204"/>
-    </row>
-    <row r="149" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A149" s="242" t="s">
+      <c r="AS148" s="168" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="149" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A149" s="211" t="s">
         <v>399</v>
       </c>
       <c r="B149" s="201">
@@ -46518,9 +47635,12 @@
       <c r="AR149" s="204">
         <v>62</v>
       </c>
-    </row>
-    <row r="150" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A150" s="242" t="s">
+      <c r="AS149" s="168" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="150" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A150" s="211" t="s">
         <v>348</v>
       </c>
       <c r="B150" s="201">
@@ -46622,9 +47742,12 @@
       <c r="AR150" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A151" s="242" t="s">
+      <c r="AS150" s="168" t="s">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="151" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A151" s="211" t="s">
         <v>358</v>
       </c>
       <c r="B151" s="201">
@@ -46720,9 +47843,12 @@
       </c>
       <c r="AQ151" s="204"/>
       <c r="AR151" s="204"/>
-    </row>
-    <row r="152" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A152" s="242" t="s">
+      <c r="AS151" s="168" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="152" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A152" s="211" t="s">
         <v>310</v>
       </c>
       <c r="B152" s="201">
@@ -46840,9 +47966,12 @@
       <c r="AR152" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A153" s="242" t="s">
+      <c r="AS152" s="168" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="153" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A153" s="211" t="s">
         <v>338</v>
       </c>
       <c r="B153" s="201">
@@ -46944,9 +48073,12 @@
       <c r="AR153" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A154" s="242" t="s">
+      <c r="AS153" s="168" t="s">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="154" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A154" s="211" t="s">
         <v>458</v>
       </c>
       <c r="B154" s="201">
@@ -47042,9 +48174,12 @@
       </c>
       <c r="AQ154" s="204"/>
       <c r="AR154" s="204"/>
-    </row>
-    <row r="155" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A155" s="242" t="s">
+      <c r="AS154" s="168" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="155" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A155" s="211" t="s">
         <v>317</v>
       </c>
       <c r="B155" s="201">
@@ -47160,9 +48295,12 @@
       <c r="AR155" s="204">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A156" s="242" t="s">
+      <c r="AS155" s="168" t="s">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="156" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A156" s="211" t="s">
         <v>371</v>
       </c>
       <c r="B156" s="201">
@@ -47262,9 +48400,12 @@
       <c r="AR156" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A157" s="242" t="s">
+      <c r="AS156" s="168" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="157" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A157" s="211" t="s">
         <v>349</v>
       </c>
       <c r="B157" s="201">
@@ -47364,9 +48505,12 @@
       </c>
       <c r="AQ157" s="204"/>
       <c r="AR157" s="204"/>
-    </row>
-    <row r="158" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A158" s="242" t="s">
+      <c r="AS157" s="168" t="s">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="158" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A158" s="211" t="s">
         <v>418</v>
       </c>
       <c r="B158" s="201">
@@ -47466,9 +48610,12 @@
       </c>
       <c r="AQ158" s="204"/>
       <c r="AR158" s="204"/>
-    </row>
-    <row r="159" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A159" s="242" t="s">
+      <c r="AS158" s="168" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="159" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A159" s="211" t="s">
         <v>311</v>
       </c>
       <c r="B159" s="201">
@@ -47582,9 +48729,12 @@
       <c r="AR159" s="204">
         <v>64</v>
       </c>
-    </row>
-    <row r="160" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A160" s="242" t="s">
+      <c r="AS159" s="168" t="s">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="160" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A160" s="211" t="s">
         <v>339</v>
       </c>
       <c r="B160" s="201">
@@ -47684,9 +48834,12 @@
       <c r="AR160" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A161" s="242" t="s">
+      <c r="AS160" s="168" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="161" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A161" s="211" t="s">
         <v>350</v>
       </c>
       <c r="B161" s="201">
@@ -47786,9 +48939,12 @@
       </c>
       <c r="AQ161" s="204"/>
       <c r="AR161" s="204"/>
-    </row>
-    <row r="162" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A162" s="242" t="s">
+      <c r="AS161" s="168" t="s">
+        <v>2828</v>
+      </c>
+    </row>
+    <row r="162" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A162" s="211" t="s">
         <v>439</v>
       </c>
       <c r="B162" s="201">
@@ -47890,9 +49046,12 @@
       <c r="AR162" s="204">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A163" s="242" t="s">
+      <c r="AS162" s="168" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="163" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A163" s="211" t="s">
         <v>318</v>
       </c>
       <c r="B163" s="201">
@@ -48008,9 +49167,12 @@
       <c r="AR163" s="204">
         <v>13</v>
       </c>
-    </row>
-    <row r="164" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A164" s="242" t="s">
+      <c r="AS163" s="168" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="164" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A164" s="211" t="s">
         <v>372</v>
       </c>
       <c r="B164" s="201">
@@ -48114,9 +49276,12 @@
       <c r="AR164" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="165" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A165" s="242" t="s">
+      <c r="AS164" s="168" t="s">
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="165" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A165" s="211" t="s">
         <v>340</v>
       </c>
       <c r="B165" s="201">
@@ -48218,9 +49383,12 @@
       <c r="AR165" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A166" s="242" t="s">
+      <c r="AS165" s="168" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="166" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A166" s="211" t="s">
         <v>445</v>
       </c>
       <c r="B166" s="201">
@@ -48320,9 +49488,12 @@
       </c>
       <c r="AQ166" s="204"/>
       <c r="AR166" s="204"/>
-    </row>
-    <row r="167" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A167" s="242" t="s">
+      <c r="AS166" s="168" t="s">
+        <v>2833</v>
+      </c>
+    </row>
+    <row r="167" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A167" s="211" t="s">
         <v>1987</v>
       </c>
       <c r="B167" s="201">
@@ -48438,9 +49609,12 @@
       <c r="AR167" s="204">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A168" s="242" t="s">
+      <c r="AS167" s="168" t="s">
+        <v>2834</v>
+      </c>
+    </row>
+    <row r="168" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A168" s="211" t="s">
         <v>319</v>
       </c>
       <c r="B168" s="201">
@@ -48562,9 +49736,12 @@
       <c r="AR168" s="204">
         <v>74</v>
       </c>
-    </row>
-    <row r="169" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A169" s="242" t="s">
+      <c r="AS168" s="168" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="169" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A169" s="211" t="s">
         <v>1989</v>
       </c>
       <c r="B169" s="201">
@@ -48676,9 +49853,12 @@
       <c r="AR169" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A170" s="242" t="s">
+      <c r="AS169" s="168" t="s">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="170" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A170" s="211" t="s">
         <v>390</v>
       </c>
       <c r="B170" s="201">
@@ -48776,9 +49956,12 @@
       <c r="AR170" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A171" s="242" t="s">
+      <c r="AS170" s="168" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="171" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A171" s="211" t="s">
         <v>440</v>
       </c>
       <c r="B171" s="201">
@@ -48876,9 +50059,12 @@
       </c>
       <c r="AQ171" s="204"/>
       <c r="AR171" s="204"/>
-    </row>
-    <row r="172" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A172" s="242" t="s">
+      <c r="AS171" s="168" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="172" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A172" s="211" t="s">
         <v>312</v>
       </c>
       <c r="B172" s="201">
@@ -48996,9 +50182,12 @@
       <c r="AR172" s="204">
         <v>40</v>
       </c>
-    </row>
-    <row r="173" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A173" s="242" t="s">
+      <c r="AS172" s="168" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="173" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A173" s="211" t="s">
         <v>406</v>
       </c>
       <c r="B173" s="201">
@@ -49096,9 +50285,12 @@
         <v>2</v>
       </c>
       <c r="AR173" s="204"/>
-    </row>
-    <row r="174" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A174" s="242" t="s">
+      <c r="AS173" s="168" t="s">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="174" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A174" s="211" t="s">
         <v>407</v>
       </c>
       <c r="B174" s="201">
@@ -49196,9 +50388,12 @@
         <v>4</v>
       </c>
       <c r="AR174" s="204"/>
-    </row>
-    <row r="175" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A175" s="242" t="s">
+      <c r="AS174" s="168" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="175" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A175" s="211" t="s">
         <v>419</v>
       </c>
       <c r="B175" s="201">
@@ -49296,9 +50491,12 @@
       </c>
       <c r="AQ175" s="204"/>
       <c r="AR175" s="204"/>
-    </row>
-    <row r="176" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A176" s="242" t="s">
+      <c r="AS175" s="168" t="s">
+        <v>2841</v>
+      </c>
+    </row>
+    <row r="176" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A176" s="211" t="s">
         <v>295</v>
       </c>
       <c r="B176" s="201">
@@ -49410,9 +50608,12 @@
       <c r="AR176" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="177" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A177" s="242" t="s">
+      <c r="AS176" s="168" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="177" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A177" s="211" t="s">
         <v>351</v>
       </c>
       <c r="B177" s="201">
@@ -49510,9 +50711,12 @@
       </c>
       <c r="AQ177" s="204"/>
       <c r="AR177" s="204"/>
-    </row>
-    <row r="178" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A178" s="242" t="s">
+      <c r="AS177" s="168" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="178" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A178" s="211" t="s">
         <v>429</v>
       </c>
       <c r="B178" s="201">
@@ -49612,9 +50816,12 @@
         <v>10</v>
       </c>
       <c r="AR178" s="204"/>
-    </row>
-    <row r="179" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A179" s="242" t="s">
+      <c r="AS178" s="168" t="s">
+        <v>2844</v>
+      </c>
+    </row>
+    <row r="179" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A179" s="211" t="s">
         <v>391</v>
       </c>
       <c r="B179" s="201">
@@ -49714,9 +50921,12 @@
       <c r="AR179" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A180" s="242" t="s">
+      <c r="AS179" s="168" t="s">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="180" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A180" s="211" t="s">
         <v>300</v>
       </c>
       <c r="B180" s="201">
@@ -49832,9 +51042,12 @@
       <c r="AR180" s="204">
         <v>19</v>
       </c>
-    </row>
-    <row r="181" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A181" s="242" t="s">
+      <c r="AS180" s="168" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="181" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A181" s="211" t="s">
         <v>305</v>
       </c>
       <c r="B181" s="201">
@@ -49946,9 +51159,12 @@
       <c r="AR181" s="204">
         <v>4</v>
       </c>
-    </row>
-    <row r="182" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A182" s="242" t="s">
+      <c r="AS181" s="168" t="s">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="182" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A182" s="211" t="s">
         <v>352</v>
       </c>
       <c r="B182" s="201">
@@ -50048,9 +51264,12 @@
       </c>
       <c r="AQ182" s="204"/>
       <c r="AR182" s="204"/>
-    </row>
-    <row r="183" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A183" s="242" t="s">
+      <c r="AS182" s="168" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="183" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A183" s="211" t="s">
         <v>408</v>
       </c>
       <c r="B183" s="201">
@@ -50150,9 +51369,12 @@
       <c r="AR183" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="184" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A184" s="242" t="s">
+      <c r="AS183" s="168" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="184" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A184" s="211" t="s">
         <v>1985</v>
       </c>
       <c r="B184" s="201">
@@ -50264,9 +51486,12 @@
       <c r="AR184" s="204">
         <v>26</v>
       </c>
-    </row>
-    <row r="185" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A185" s="242" t="s">
+      <c r="AS184" s="168" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="185" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A185" s="211" t="s">
         <v>373</v>
       </c>
       <c r="B185" s="201">
@@ -50366,9 +51591,12 @@
       <c r="AR185" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A186" s="242" t="s">
+      <c r="AS185" s="168" t="s">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="186" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A186" s="211" t="s">
         <v>382</v>
       </c>
       <c r="B186" s="201">
@@ -50468,9 +51696,12 @@
       <c r="AR186" s="204">
         <v>6</v>
       </c>
-    </row>
-    <row r="187" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A187" s="242" t="s">
+      <c r="AS186" s="168" t="s">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="187" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A187" s="211" t="s">
         <v>409</v>
       </c>
       <c r="B187" s="201">
@@ -50568,9 +51799,12 @@
       <c r="AR187" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A188" s="242" t="s">
+      <c r="AS187" s="168" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="188" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A188" s="211" t="s">
         <v>301</v>
       </c>
       <c r="B188" s="201">
@@ -50682,9 +51916,12 @@
       <c r="AR188" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A189" s="242" t="s">
+      <c r="AS188" s="168" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="189" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A189" s="211" t="s">
         <v>341</v>
       </c>
       <c r="B189" s="201">
@@ -50784,9 +52021,12 @@
       <c r="AR189" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A190" s="242" t="s">
+      <c r="AS189" s="168" t="s">
+        <v>2853</v>
+      </c>
+    </row>
+    <row r="190" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A190" s="211" t="s">
         <v>383</v>
       </c>
       <c r="B190" s="201">
@@ -50888,9 +52128,12 @@
       <c r="AR190" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A191" s="242" t="s">
+      <c r="AS190" s="168" t="s">
+        <v>2854</v>
+      </c>
+    </row>
+    <row r="191" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A191" s="211" t="s">
         <v>322</v>
       </c>
       <c r="B191" s="201">
@@ -51008,9 +52251,12 @@
       <c r="AR191" s="204">
         <v>151</v>
       </c>
-    </row>
-    <row r="192" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A192" s="242" t="s">
+      <c r="AS191" s="168" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="192" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A192" s="211" t="s">
         <v>1743</v>
       </c>
       <c r="B192" s="201">
@@ -51127,9 +52373,12 @@
       <c r="AR192" s="204">
         <v>40</v>
       </c>
-    </row>
-    <row r="193" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A193" s="242" t="s">
+      <c r="AS192" s="168" t="s">
+        <v>2856</v>
+      </c>
+    </row>
+    <row r="193" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A193" s="211" t="s">
         <v>329</v>
       </c>
       <c r="B193" s="201">
@@ -51251,9 +52500,12 @@
       <c r="AR193" s="204">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A194" s="242" t="s">
+      <c r="AS193" s="168" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="194" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A194" s="211" t="s">
         <v>374</v>
       </c>
       <c r="B194" s="201">
@@ -51355,9 +52607,12 @@
       <c r="AR194" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A195" s="242" t="s">
+      <c r="AS194" s="168" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="195" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A195" s="211" t="s">
         <v>302</v>
       </c>
       <c r="B195" s="201">
@@ -51477,9 +52732,12 @@
       <c r="AR195" s="204">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A196" s="242" t="s">
+      <c r="AS195" s="168" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="196" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A196" s="211" t="s">
         <v>410</v>
       </c>
       <c r="B196" s="201">
@@ -51579,9 +52837,12 @@
       </c>
       <c r="AQ196" s="204"/>
       <c r="AR196" s="204"/>
-    </row>
-    <row r="197" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A197" s="246" t="s">
+      <c r="AS196" s="168" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="197" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A197" s="215" t="s">
         <v>411</v>
       </c>
       <c r="B197" s="201">
@@ -51679,9 +52940,12 @@
       </c>
       <c r="AQ197" s="204"/>
       <c r="AR197" s="204"/>
-    </row>
-    <row r="198" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A198" s="242" t="s">
+      <c r="AS197" s="168" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="198" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A198" s="211" t="s">
         <v>424</v>
       </c>
       <c r="B198" s="201">
@@ -51783,9 +53047,12 @@
         <v>1</v>
       </c>
       <c r="AR198" s="204"/>
-    </row>
-    <row r="199" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A199" s="242" t="s">
+      <c r="AS198" s="168" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="199" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A199" s="211" t="s">
         <v>313</v>
       </c>
       <c r="B199" s="201">
@@ -51899,9 +53166,12 @@
       <c r="AR199" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A200" s="242" t="s">
+      <c r="AS199" s="168" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="200" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A200" s="211" t="s">
         <v>1986</v>
       </c>
       <c r="B200" s="201">
@@ -52011,9 +53281,12 @@
       <c r="AR200" s="204">
         <v>31</v>
       </c>
-    </row>
-    <row r="201" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A201" s="242" t="s">
+      <c r="AS200" s="168" t="s">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="201" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A201" s="211" t="s">
         <v>1744</v>
       </c>
       <c r="B201" s="201">
@@ -52127,9 +53400,12 @@
       <c r="AR201" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A202" s="242" t="s">
+      <c r="AS201" s="168" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="202" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A202" s="211" t="s">
         <v>1745</v>
       </c>
       <c r="B202" s="201">
@@ -52239,9 +53515,12 @@
       <c r="AR202" s="204">
         <v>30</v>
       </c>
-    </row>
-    <row r="203" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A203" s="242" t="s">
+      <c r="AS202" s="168" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="203" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A203" s="211" t="s">
         <v>1746</v>
       </c>
       <c r="B203" s="201">
@@ -52355,9 +53634,12 @@
       <c r="AR203" s="204">
         <v>22</v>
       </c>
-    </row>
-    <row r="204" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A204" s="242" t="s">
+      <c r="AS203" s="168" t="s">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="204" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A204" s="211" t="s">
         <v>1823</v>
       </c>
       <c r="B204" s="201">
@@ -52476,9 +53758,12 @@
       <c r="AR204" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A205" s="242" t="s">
+      <c r="AS204" s="168" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="205" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A205" s="211" t="s">
         <v>1747</v>
       </c>
       <c r="B205" s="201">
@@ -52576,9 +53861,12 @@
       <c r="AR205" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A206" s="242" t="s">
+      <c r="AS205" s="168" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="206" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A206" s="211" t="s">
         <v>1748</v>
       </c>
       <c r="B206" s="201">
@@ -52676,9 +53964,12 @@
       </c>
       <c r="AQ206" s="204"/>
       <c r="AR206" s="204"/>
-    </row>
-    <row r="207" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A207" s="246" t="s">
+      <c r="AS206" s="168" t="s">
+        <v>2866</v>
+      </c>
+    </row>
+    <row r="207" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A207" s="215" t="s">
         <v>1763</v>
       </c>
       <c r="B207" s="201">
@@ -52784,9 +54075,12 @@
       <c r="AR207" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A208" s="242" t="s">
+      <c r="AS207" s="168" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="208" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A208" s="211" t="s">
         <v>1764</v>
       </c>
       <c r="B208" s="201">
@@ -52886,9 +54180,12 @@
       <c r="AR208" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A209" s="242" t="s">
+      <c r="AS208" s="168" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="209" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A209" s="211" t="s">
         <v>1969</v>
       </c>
       <c r="B209" s="201">
@@ -52992,9 +54289,12 @@
       <c r="AR209" s="204">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A210" s="242" t="s">
+      <c r="AS209" s="168" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="210" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A210" s="211" t="s">
         <v>1971</v>
       </c>
       <c r="B210" s="201">
@@ -53096,9 +54396,12 @@
       <c r="AR210" s="204">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A211" s="242" t="s">
+      <c r="AS210" s="168" t="s">
+        <v>2868</v>
+      </c>
+    </row>
+    <row r="211" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A211" s="211" t="s">
         <v>1975</v>
       </c>
       <c r="B211" s="201">
@@ -53196,9 +54499,12 @@
       <c r="AR211" s="204">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A212" s="242" t="s">
+      <c r="AS211" s="168" t="s">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="212" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A212" s="211" t="s">
         <v>1973</v>
       </c>
       <c r="B212" s="201">
@@ -53296,9 +54602,12 @@
       </c>
       <c r="AQ212" s="204"/>
       <c r="AR212" s="204"/>
-    </row>
-    <row r="213" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A213" s="242" t="s">
+      <c r="AS212" s="168" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="213" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A213" s="211" t="s">
         <v>1978</v>
       </c>
       <c r="B213" s="201">
@@ -53396,9 +54705,12 @@
       </c>
       <c r="AQ213" s="204"/>
       <c r="AR213" s="204"/>
-    </row>
-    <row r="214" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A214" s="242" t="s">
+      <c r="AS213" s="168" t="s">
+        <v>2871</v>
+      </c>
+    </row>
+    <row r="214" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A214" s="211" t="s">
         <v>1976</v>
       </c>
       <c r="B214" s="201">
@@ -53496,9 +54808,12 @@
       </c>
       <c r="AQ214" s="204"/>
       <c r="AR214" s="204"/>
-    </row>
-    <row r="215" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A215" s="242" t="s">
+      <c r="AS214" s="168" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="215" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A215" s="211" t="s">
         <v>1977</v>
       </c>
       <c r="B215" s="201">
@@ -53588,9 +54903,12 @@
       <c r="AR215" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A216" s="246" t="s">
+      <c r="AS215" s="168" t="s">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="216" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A216" s="215" t="s">
         <v>1990</v>
       </c>
       <c r="B216" s="201">
@@ -53692,9 +55010,12 @@
       <c r="AR216" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A217" s="246" t="s">
+      <c r="AS216" s="168" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="217" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A217" s="215" t="s">
         <v>1993</v>
       </c>
       <c r="B217" s="201">
@@ -53792,9 +55113,12 @@
       <c r="AR217" s="204">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A218" s="242" t="s">
+      <c r="AS217" s="168" t="s">
+        <v>2874</v>
+      </c>
+    </row>
+    <row r="218" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A218" s="211" t="s">
         <v>1992</v>
       </c>
       <c r="B218" s="201">
@@ -53892,9 +55216,12 @@
       </c>
       <c r="AQ218" s="204"/>
       <c r="AR218" s="204"/>
-    </row>
-    <row r="219" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A219" s="242" t="s">
+      <c r="AS218" s="168" t="s">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="219" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A219" s="211" t="s">
         <v>2577</v>
       </c>
       <c r="B219" s="201">
@@ -53994,9 +55321,12 @@
       </c>
       <c r="AQ219" s="204"/>
       <c r="AR219" s="204"/>
-    </row>
-    <row r="220" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A220" s="242" t="s">
+      <c r="AS219" s="168" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="220" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A220" s="211" t="s">
         <v>2578</v>
       </c>
       <c r="B220" s="201">
@@ -54092,9 +55422,12 @@
       </c>
       <c r="AQ220" s="204"/>
       <c r="AR220" s="204"/>
-    </row>
-    <row r="221" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A221" s="242" t="s">
+      <c r="AS220" s="168" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="221" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A221" s="211" t="s">
         <v>2579</v>
       </c>
       <c r="B221" s="201">
@@ -54188,10 +55521,13 @@
       </c>
       <c r="AQ221" s="204"/>
       <c r="AR221" s="204"/>
-    </row>
-    <row r="222" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A222" s="246" t="s">
-        <v>2601</v>
+      <c r="AS221" s="168" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="222" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A222" s="211" t="s">
+        <v>2672</v>
       </c>
       <c r="B222" s="201">
         <v>6</v>
@@ -54207,7 +55543,7 @@
       </c>
       <c r="F222" s="209"/>
       <c r="G222" s="209" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="H222" s="169"/>
       <c r="I222" s="202" t="s">
@@ -54217,13 +55553,13 @@
         <v>22</v>
       </c>
       <c r="K222" s="209" t="s">
+        <v>2602</v>
+      </c>
+      <c r="L222" s="169" t="s">
         <v>2603</v>
       </c>
-      <c r="L222" s="169" t="s">
+      <c r="M222" s="198" t="s">
         <v>2604</v>
-      </c>
-      <c r="M222" s="198" t="s">
-        <v>2605</v>
       </c>
       <c r="N222" s="198" t="s">
         <v>2587</v>
@@ -54236,7 +55572,7 @@
       </c>
       <c r="Q222" s="68"/>
       <c r="R222" s="68" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="S222" s="68"/>
       <c r="T222" s="198" t="s">
@@ -54258,7 +55594,7 @@
         <v>2587</v>
       </c>
       <c r="Z222" s="198" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="AA222" s="198" t="s">
         <v>2585</v>
@@ -54267,14 +55603,14 @@
         <v>2589</v>
       </c>
       <c r="AC222" s="198" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="AD222" s="198"/>
       <c r="AE222" s="198" t="s">
         <v>2587</v>
       </c>
       <c r="AF222" s="198" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="AG222" s="198" t="s">
         <v>2584</v>
@@ -54292,9 +55628,12 @@
       </c>
       <c r="AQ222" s="204"/>
       <c r="AR222" s="204"/>
-    </row>
-    <row r="223" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A223" s="242" t="s">
+      <c r="AS222" s="168" t="s">
+        <v>2877</v>
+      </c>
+    </row>
+    <row r="223" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A223" s="211" t="s">
         <v>2594</v>
       </c>
       <c r="B223" s="201">
@@ -54339,7 +55678,7 @@
         <v>70</v>
       </c>
       <c r="Q223" s="68" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="R223" s="68"/>
       <c r="S223" s="68" t="s">
@@ -54364,7 +55703,7 @@
         <v>2589</v>
       </c>
       <c r="Z223" s="198" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="AA223" s="198"/>
       <c r="AB223" s="198" t="s">
@@ -54392,10 +55731,13 @@
       </c>
       <c r="AQ223" s="204"/>
       <c r="AR223" s="204"/>
-    </row>
-    <row r="224" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A224" s="242" t="s">
-        <v>2613</v>
+      <c r="AS223" s="168" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="224" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A224" s="211" t="s">
+        <v>2612</v>
       </c>
       <c r="B224" s="201">
         <v>5</v>
@@ -54409,39 +55751,39 @@
       </c>
       <c r="F224" s="209"/>
       <c r="G224" s="209" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="H224" s="169"/>
       <c r="I224" s="202" t="s">
+        <v>2618</v>
+      </c>
+      <c r="J224" s="198" t="s">
         <v>2619</v>
       </c>
-      <c r="J224" s="198" t="s">
+      <c r="K224" s="202" t="s">
         <v>2620</v>
       </c>
-      <c r="K224" s="202" t="s">
+      <c r="L224" s="202" t="s">
         <v>2621</v>
       </c>
-      <c r="L224" s="202" t="s">
+      <c r="M224" s="202" t="s">
         <v>2622</v>
-      </c>
-      <c r="M224" s="202" t="s">
-        <v>2623</v>
       </c>
       <c r="N224" s="202" t="s">
         <v>2589</v>
       </c>
       <c r="O224" s="198" t="s">
+        <v>2623</v>
+      </c>
+      <c r="P224" s="198" t="s">
         <v>2624</v>
       </c>
-      <c r="P224" s="198" t="s">
-        <v>2625</v>
-      </c>
       <c r="Q224" s="68" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="R224" s="68"/>
       <c r="S224" s="68" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="T224" s="198" t="s">
         <v>2513</v>
@@ -54488,10 +55830,13 @@
       </c>
       <c r="AQ224" s="204"/>
       <c r="AR224" s="204"/>
-    </row>
-    <row r="225" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A225" s="246" t="s">
-        <v>2614</v>
+      <c r="AS224" s="168" t="s">
+        <v>2878</v>
+      </c>
+    </row>
+    <row r="225" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A225" s="215" t="s">
+        <v>2613</v>
       </c>
       <c r="B225" s="201">
         <v>5</v>
@@ -54505,36 +55850,36 @@
       </c>
       <c r="F225" s="209"/>
       <c r="G225" s="209" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="H225" s="169"/>
       <c r="I225" s="202" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="J225" s="198" t="s">
+        <v>2625</v>
+      </c>
+      <c r="K225" s="202" t="s">
         <v>2626</v>
       </c>
-      <c r="K225" s="202" t="s">
+      <c r="L225" s="202" t="s">
         <v>2627</v>
       </c>
-      <c r="L225" s="202" t="s">
+      <c r="M225" s="202" t="s">
         <v>2628</v>
-      </c>
-      <c r="M225" s="202" t="s">
-        <v>2629</v>
       </c>
       <c r="N225" s="202" t="s">
         <v>2589</v>
       </c>
       <c r="O225" s="198" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="P225" s="198" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="Q225" s="68"/>
       <c r="R225" s="68" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="S225" s="68"/>
       <c r="T225" s="198" t="s">
@@ -54556,7 +55901,7 @@
         <v>2589</v>
       </c>
       <c r="Z225" s="198" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="AA225" s="198"/>
       <c r="AB225" s="198" t="s">
@@ -54584,10 +55929,13 @@
       </c>
       <c r="AQ225" s="204"/>
       <c r="AR225" s="204"/>
-    </row>
-    <row r="226" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A226" s="246" t="s">
-        <v>2615</v>
+      <c r="AS225" s="168" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="226" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A226" s="215" t="s">
+        <v>2614</v>
       </c>
       <c r="B226" s="201">
         <v>6</v>
@@ -54601,36 +55949,36 @@
       </c>
       <c r="F226" s="209"/>
       <c r="G226" s="209" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="H226" s="169"/>
       <c r="I226" s="202" t="s">
         <v>2596</v>
       </c>
       <c r="J226" s="198" t="s">
+        <v>2630</v>
+      </c>
+      <c r="K226" s="202" t="s">
         <v>2631</v>
       </c>
-      <c r="K226" s="202" t="s">
+      <c r="L226" s="202" t="s">
         <v>2632</v>
       </c>
-      <c r="L226" s="202" t="s">
+      <c r="M226" s="202" t="s">
         <v>2633</v>
-      </c>
-      <c r="M226" s="202" t="s">
-        <v>2634</v>
       </c>
       <c r="N226" s="202" t="s">
         <v>2589</v>
       </c>
       <c r="O226" s="198" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="P226" s="198" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="Q226" s="68"/>
       <c r="R226" s="68" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="S226" s="68"/>
       <c r="T226" s="198" t="s">
@@ -54668,7 +56016,7 @@
         <v>2589</v>
       </c>
       <c r="AF226" s="198" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="AG226" s="198"/>
       <c r="AH226" s="196"/>
@@ -54684,10 +56032,13 @@
       </c>
       <c r="AQ226" s="204"/>
       <c r="AR226" s="204"/>
-    </row>
-    <row r="227" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A227" s="242" t="s">
-        <v>2644</v>
+      <c r="AS226" s="168" t="s">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="227" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A227" s="211" t="s">
+        <v>2643</v>
       </c>
       <c r="B227" s="201">
         <v>6</v>
@@ -54699,7 +56050,7 @@
       <c r="E227" s="169"/>
       <c r="F227" s="209"/>
       <c r="G227" s="209" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="H227" s="169"/>
       <c r="I227" s="202"/>
@@ -54740,10 +56091,13 @@
       </c>
       <c r="AQ227" s="204"/>
       <c r="AR227" s="204"/>
-    </row>
-    <row r="228" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A228" s="242" t="s">
-        <v>2645</v>
+      <c r="AS227" s="168" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="228" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A228" s="211" t="s">
+        <v>2644</v>
       </c>
       <c r="B228" s="201">
         <v>5</v>
@@ -54757,7 +56111,7 @@
       </c>
       <c r="F228" s="209"/>
       <c r="G228" s="209" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="H228" s="169"/>
       <c r="I228" s="202"/>
@@ -54798,10 +56152,13 @@
       </c>
       <c r="AQ228" s="204"/>
       <c r="AR228" s="204"/>
-    </row>
-    <row r="229" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A229" s="242" t="s">
-        <v>2646</v>
+      <c r="AS228" s="168" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="229" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A229" s="211" t="s">
+        <v>2645</v>
       </c>
       <c r="B229" s="201">
         <v>5</v>
@@ -54813,7 +56170,7 @@
       <c r="E229" s="169"/>
       <c r="F229" s="209"/>
       <c r="G229" s="209" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="H229" s="169"/>
       <c r="I229" s="202"/>
@@ -54854,10 +56211,13 @@
       </c>
       <c r="AQ229" s="204"/>
       <c r="AR229" s="204"/>
-    </row>
-    <row r="230" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A230" s="242" t="s">
-        <v>2647</v>
+      <c r="AS229" s="168" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="230" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A230" s="211" t="s">
+        <v>2646</v>
       </c>
       <c r="B230" s="201">
         <v>4</v>
@@ -54871,7 +56231,7 @@
       </c>
       <c r="F230" s="209"/>
       <c r="G230" s="209" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="H230" s="169"/>
       <c r="I230" s="202"/>
@@ -54912,10 +56272,13 @@
       </c>
       <c r="AQ230" s="204"/>
       <c r="AR230" s="204"/>
-    </row>
-    <row r="231" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A231" s="242" t="s">
-        <v>2652</v>
+      <c r="AS230" s="168" t="s">
+        <v>2881</v>
+      </c>
+    </row>
+    <row r="231" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A231" s="211" t="s">
+        <v>2651</v>
       </c>
       <c r="B231" s="201">
         <v>6</v>
@@ -54927,7 +56290,7 @@
       <c r="E231" s="169"/>
       <c r="F231" s="209"/>
       <c r="G231" s="209" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="H231" s="169"/>
       <c r="I231" s="202"/>
@@ -54968,22 +56331,25 @@
       </c>
       <c r="AQ231" s="204"/>
       <c r="AR231" s="204"/>
-    </row>
-    <row r="232" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A232" s="242" t="s">
-        <v>2653</v>
+      <c r="AS231" s="168" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="232" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A232" s="211" t="s">
+        <v>2652</v>
       </c>
       <c r="B232" s="201">
         <v>6</v>
       </c>
       <c r="C232" s="169" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D232" s="169"/>
       <c r="E232" s="169"/>
       <c r="F232" s="209"/>
       <c r="G232" s="209" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="H232" s="169"/>
       <c r="I232" s="202"/>
@@ -55024,10 +56390,13 @@
       </c>
       <c r="AQ232" s="204"/>
       <c r="AR232" s="204"/>
-    </row>
-    <row r="233" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A233" s="242" t="s">
-        <v>2654</v>
+      <c r="AS232" s="168" t="s">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="233" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A233" s="211" t="s">
+        <v>2653</v>
       </c>
       <c r="B233" s="201">
         <v>6</v>
@@ -55041,32 +56410,32 @@
       </c>
       <c r="F233" s="209"/>
       <c r="G233" s="209" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="H233" s="169"/>
       <c r="I233" s="202" t="s">
         <v>2596</v>
       </c>
       <c r="J233" s="198" t="s">
+        <v>2659</v>
+      </c>
+      <c r="K233" s="202" t="s">
         <v>2660</v>
       </c>
-      <c r="K233" s="202" t="s">
+      <c r="L233" s="202" t="s">
         <v>2661</v>
       </c>
-      <c r="L233" s="202" t="s">
+      <c r="M233" s="202" t="s">
         <v>2662</v>
-      </c>
-      <c r="M233" s="202" t="s">
-        <v>2663</v>
       </c>
       <c r="N233" s="202" t="s">
         <v>1759</v>
       </c>
       <c r="O233" s="198" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="P233" s="198" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="Q233" s="198"/>
       <c r="R233" s="198" t="s">
@@ -55108,7 +56477,7 @@
         <v>2589</v>
       </c>
       <c r="AF233" s="202" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="AG233" s="202"/>
       <c r="AH233" s="196"/>
@@ -55124,10 +56493,13 @@
       </c>
       <c r="AQ233" s="204"/>
       <c r="AR233" s="204"/>
-    </row>
-    <row r="234" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="A234" s="242" t="s">
-        <v>2655</v>
+      <c r="AS233" s="168" t="s">
+        <v>2884</v>
+      </c>
+    </row>
+    <row r="234" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A234" s="211" t="s">
+        <v>2654</v>
       </c>
       <c r="B234" s="201">
         <v>5</v>
@@ -55141,39 +56513,39 @@
       </c>
       <c r="F234" s="209"/>
       <c r="G234" s="209" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="H234" s="169"/>
       <c r="I234" s="202" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="J234" s="198" t="s">
+        <v>2664</v>
+      </c>
+      <c r="K234" s="202" t="s">
         <v>2665</v>
       </c>
-      <c r="K234" s="202" t="s">
+      <c r="L234" s="202" t="s">
         <v>2666</v>
       </c>
-      <c r="L234" s="202" t="s">
+      <c r="M234" s="202" t="s">
         <v>2667</v>
-      </c>
-      <c r="M234" s="202" t="s">
-        <v>2668</v>
       </c>
       <c r="N234" s="202" t="s">
         <v>2589</v>
       </c>
       <c r="O234" s="198" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="P234" s="198" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="Q234" s="198"/>
       <c r="R234" s="198" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="S234" s="198" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="T234" s="68" t="s">
         <v>2513</v>
@@ -55201,7 +56573,7 @@
         <v>2584</v>
       </c>
       <c r="AC234" s="202" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="AD234" s="202" t="s">
         <v>2587</v>
@@ -55222,6 +56594,121 @@
       </c>
       <c r="AQ234" s="204"/>
       <c r="AR234" s="204"/>
+      <c r="AS234" s="168" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="235" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A235" s="210" t="s">
+        <v>2673</v>
+      </c>
+      <c r="AS235" s="168" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="236" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A236" s="210" t="s">
+        <v>2674</v>
+      </c>
+      <c r="AS236" s="168" t="s">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="237" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A237" s="210" t="s">
+        <v>2675</v>
+      </c>
+      <c r="AS237" s="168" t="s">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="238" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A238" s="210" t="s">
+        <v>2676</v>
+      </c>
+      <c r="AS238" s="168" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="239" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A239" s="210" t="s">
+        <v>2677</v>
+      </c>
+      <c r="AS239" s="168" t="s">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="240" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A240" s="210" t="s">
+        <v>2678</v>
+      </c>
+      <c r="AS240" s="168" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="241" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A241" s="210" t="s">
+        <v>2679</v>
+      </c>
+      <c r="AS241" s="168" t="s">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="242" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A242" s="210" t="s">
+        <v>2680</v>
+      </c>
+      <c r="AS242" s="168" t="s">
+        <v>2890</v>
+      </c>
+    </row>
+    <row r="243" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A243" s="210" t="s">
+        <v>2681</v>
+      </c>
+      <c r="AS243" s="168" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="244" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A244" s="210" t="s">
+        <v>2682</v>
+      </c>
+      <c r="AS244" s="168" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="245" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A245" s="210" t="s">
+        <v>2683</v>
+      </c>
+      <c r="AS245" s="168" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="246" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A246" s="210" t="s">
+        <v>2684</v>
+      </c>
+      <c r="AS246" s="168" t="s">
+        <v>2893</v>
+      </c>
+    </row>
+    <row r="247" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A247" s="210" t="s">
+        <v>2685</v>
+      </c>
+      <c r="AS247" s="168" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="248" spans="1:45" x14ac:dyDescent="0.35">
+      <c r="A248" s="210" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AS248" s="168" t="s">
+        <v>2895</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AR215" xr:uid="{A6D98FF0-251B-47BD-8769-023F908CB4D9}">
@@ -55240,7 +56727,7 @@
   <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
@@ -55262,11 +56749,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="226" t="s">
         <v>703</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
+      <c r="B2" s="226"/>
+      <c r="C2" s="226"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -55577,11 +57064,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="221" t="s">
+      <c r="A31" s="226" t="s">
         <v>1566</v>
       </c>
-      <c r="B31" s="221"/>
-      <c r="C31" s="221"/>
+      <c r="B31" s="226"/>
+      <c r="C31" s="226"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -55735,11 +57222,11 @@
     </row>
     <row r="50" spans="1:3" s="77" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="221" t="s">
+      <c r="A51" s="226" t="s">
         <v>1354</v>
       </c>
-      <c r="B51" s="221"/>
-      <c r="C51" s="221"/>
+      <c r="B51" s="226"/>
+      <c r="C51" s="226"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
@@ -56004,11 +57491,11 @@
     <row r="83" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="84" spans="1:4" s="77" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="222" t="s">
+      <c r="A86" s="227" t="s">
         <v>1488</v>
       </c>
-      <c r="B86" s="223"/>
-      <c r="C86" s="224"/>
+      <c r="B86" s="228"/>
+      <c r="C86" s="229"/>
       <c r="D86" s="159" t="s">
         <v>1628</v>
       </c>
@@ -56428,7 +57915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4FAD2F-D6C3-47E3-9DEF-76DB4360A8A1}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView topLeftCell="A342" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
@@ -56440,26 +57927,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="236" t="s">
         <v>2002</v>
       </c>
-      <c r="B1" s="231"/>
+      <c r="B1" s="236"/>
       <c r="C1" s="183"/>
       <c r="D1" s="183"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="237" t="s">
         <v>2003</v>
       </c>
-      <c r="B2" s="232"/>
+      <c r="B2" s="237"/>
       <c r="C2" s="183"/>
       <c r="D2" s="183"/>
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="238" t="s">
         <v>2004</v>
       </c>
-      <c r="B3" s="233"/>
+      <c r="B3" s="238"/>
       <c r="C3" s="183"/>
       <c r="D3" s="183"/>
     </row>
@@ -57275,7 +58762,7 @@
       <c r="A101" s="173" t="s">
         <v>2104</v>
       </c>
-      <c r="B101" s="225">
+      <c r="B101" s="230">
         <v>-1</v>
       </c>
       <c r="C101" s="183"/>
@@ -57283,7 +58770,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="173"/>
-      <c r="B102" s="234"/>
+      <c r="B102" s="239"/>
       <c r="C102" s="183"/>
       <c r="D102" s="183"/>
     </row>
@@ -57291,7 +58778,7 @@
       <c r="A103" s="175" t="s">
         <v>2105</v>
       </c>
-      <c r="B103" s="226"/>
+      <c r="B103" s="231"/>
       <c r="C103" s="183"/>
       <c r="D103" s="183"/>
     </row>
@@ -57299,7 +58786,7 @@
       <c r="A104" s="173" t="s">
         <v>2106</v>
       </c>
-      <c r="B104" s="225">
+      <c r="B104" s="230">
         <v>0</v>
       </c>
       <c r="C104" s="183"/>
@@ -57307,7 +58794,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="173"/>
-      <c r="B105" s="234"/>
+      <c r="B105" s="239"/>
       <c r="C105" s="183"/>
       <c r="D105" s="183"/>
     </row>
@@ -57315,7 +58802,7 @@
       <c r="A106" s="175" t="s">
         <v>2107</v>
       </c>
-      <c r="B106" s="226"/>
+      <c r="B106" s="231"/>
       <c r="C106" s="183"/>
       <c r="D106" s="183"/>
     </row>
@@ -57323,7 +58810,7 @@
       <c r="A107" s="173" t="s">
         <v>2108</v>
       </c>
-      <c r="B107" s="225">
+      <c r="B107" s="230">
         <v>1</v>
       </c>
       <c r="C107" s="183"/>
@@ -57331,7 +58818,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="173"/>
-      <c r="B108" s="234"/>
+      <c r="B108" s="239"/>
       <c r="C108" s="183"/>
       <c r="D108" s="183"/>
     </row>
@@ -57339,7 +58826,7 @@
       <c r="A109" s="175" t="s">
         <v>2109</v>
       </c>
-      <c r="B109" s="226"/>
+      <c r="B109" s="231"/>
       <c r="C109" s="183"/>
       <c r="D109" s="183"/>
     </row>
@@ -57347,7 +58834,7 @@
       <c r="A110" s="173" t="s">
         <v>2110</v>
       </c>
-      <c r="B110" s="225">
+      <c r="B110" s="230">
         <v>2</v>
       </c>
       <c r="C110" s="183"/>
@@ -57355,7 +58842,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="173"/>
-      <c r="B111" s="234"/>
+      <c r="B111" s="239"/>
       <c r="C111" s="183"/>
       <c r="D111" s="183"/>
     </row>
@@ -57363,7 +58850,7 @@
       <c r="A112" s="175" t="s">
         <v>2111</v>
       </c>
-      <c r="B112" s="226"/>
+      <c r="B112" s="231"/>
       <c r="C112" s="183"/>
       <c r="D112" s="183"/>
     </row>
@@ -57371,7 +58858,7 @@
       <c r="A113" s="173" t="s">
         <v>2112</v>
       </c>
-      <c r="B113" s="225">
+      <c r="B113" s="230">
         <v>3</v>
       </c>
       <c r="C113" s="183"/>
@@ -57379,7 +58866,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="173"/>
-      <c r="B114" s="234"/>
+      <c r="B114" s="239"/>
       <c r="C114" s="183"/>
       <c r="D114" s="183"/>
     </row>
@@ -57387,7 +58874,7 @@
       <c r="A115" s="175" t="s">
         <v>2113</v>
       </c>
-      <c r="B115" s="226"/>
+      <c r="B115" s="231"/>
       <c r="C115" s="183"/>
       <c r="D115" s="183"/>
     </row>
@@ -57504,13 +58991,13 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="27.6" x14ac:dyDescent="0.35">
-      <c r="A125" s="225" t="s">
+      <c r="A125" s="230" t="s">
         <v>2122</v>
       </c>
-      <c r="B125" s="225">
+      <c r="B125" s="230">
         <v>0.4</v>
       </c>
-      <c r="C125" s="225" t="s">
+      <c r="C125" s="230" t="s">
         <v>2123</v>
       </c>
       <c r="D125" s="174" t="s">
@@ -57518,9 +59005,9 @@
       </c>
     </row>
     <row r="126" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="226"/>
-      <c r="B126" s="226"/>
-      <c r="C126" s="226"/>
+      <c r="A126" s="231"/>
+      <c r="B126" s="231"/>
+      <c r="C126" s="231"/>
       <c r="D126" s="176" t="s">
         <v>2279</v>
       </c>
@@ -57700,13 +59187,13 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="27.6" x14ac:dyDescent="0.35">
-      <c r="A140" s="225" t="s">
+      <c r="A140" s="230" t="s">
         <v>2136</v>
       </c>
-      <c r="B140" s="225">
+      <c r="B140" s="230">
         <v>-0.9</v>
       </c>
-      <c r="C140" s="225" t="s">
+      <c r="C140" s="230" t="s">
         <v>2137</v>
       </c>
       <c r="D140" s="174" t="s">
@@ -57714,9 +59201,9 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="226"/>
-      <c r="B141" s="226"/>
-      <c r="C141" s="226"/>
+      <c r="A141" s="231"/>
+      <c r="B141" s="231"/>
+      <c r="C141" s="231"/>
       <c r="D141" s="176" t="s">
         <v>2322</v>
       </c>
@@ -57890,13 +59377,13 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="27.6" x14ac:dyDescent="0.35">
-      <c r="A155" s="225" t="s">
+      <c r="A155" s="230" t="s">
         <v>2119</v>
       </c>
-      <c r="B155" s="227">
+      <c r="B155" s="232">
         <v>0.7</v>
       </c>
-      <c r="C155" s="225" t="s">
+      <c r="C155" s="230" t="s">
         <v>2120</v>
       </c>
       <c r="D155" s="174" t="s">
@@ -57904,17 +59391,17 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="27.6" x14ac:dyDescent="0.35">
-      <c r="A156" s="234"/>
-      <c r="B156" s="235"/>
-      <c r="C156" s="234"/>
+      <c r="A156" s="239"/>
+      <c r="B156" s="240"/>
+      <c r="C156" s="239"/>
       <c r="D156" s="174" t="s">
         <v>2326</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="226"/>
-      <c r="B157" s="228"/>
-      <c r="C157" s="226"/>
+      <c r="A157" s="231"/>
+      <c r="B157" s="233"/>
+      <c r="C157" s="231"/>
       <c r="D157" s="176" t="s">
         <v>2327</v>
       </c>
@@ -57948,13 +59435,13 @@
       </c>
     </row>
     <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.35">
-      <c r="A160" s="225" t="s">
+      <c r="A160" s="230" t="s">
         <v>2119</v>
       </c>
-      <c r="B160" s="227">
+      <c r="B160" s="232">
         <v>0.5</v>
       </c>
-      <c r="C160" s="225" t="s">
+      <c r="C160" s="230" t="s">
         <v>2120</v>
       </c>
       <c r="D160" s="181" t="s">
@@ -57962,29 +59449,29 @@
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="234"/>
-      <c r="B161" s="235"/>
-      <c r="C161" s="234"/>
+      <c r="A161" s="239"/>
+      <c r="B161" s="240"/>
+      <c r="C161" s="239"/>
       <c r="D161" s="174" t="s">
         <v>2330</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="226"/>
-      <c r="B162" s="228"/>
-      <c r="C162" s="226"/>
+      <c r="A162" s="231"/>
+      <c r="B162" s="233"/>
+      <c r="C162" s="231"/>
       <c r="D162" s="191" t="s">
         <v>2146</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="225" t="s">
+      <c r="A163" s="230" t="s">
         <v>2119</v>
       </c>
-      <c r="B163" s="227">
+      <c r="B163" s="232">
         <v>0.4</v>
       </c>
-      <c r="C163" s="225" t="s">
+      <c r="C163" s="230" t="s">
         <v>2120</v>
       </c>
       <c r="D163" s="174" t="s">
@@ -57992,9 +59479,9 @@
       </c>
     </row>
     <row r="164" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="226"/>
-      <c r="B164" s="228"/>
-      <c r="C164" s="226"/>
+      <c r="A164" s="231"/>
+      <c r="B164" s="233"/>
+      <c r="C164" s="231"/>
       <c r="D164" s="176" t="s">
         <v>2332</v>
       </c>
@@ -58224,24 +59711,24 @@
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="225" t="s">
+      <c r="A182" s="230" t="s">
         <v>2136</v>
       </c>
-      <c r="B182" s="227">
+      <c r="B182" s="232">
         <v>-0.5</v>
       </c>
-      <c r="C182" s="225" t="s">
+      <c r="C182" s="230" t="s">
         <v>2137</v>
       </c>
-      <c r="D182" s="229" t="s">
+      <c r="D182" s="234" t="s">
         <v>2149</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="226"/>
-      <c r="B183" s="228"/>
-      <c r="C183" s="226"/>
-      <c r="D183" s="230"/>
+      <c r="A183" s="231"/>
+      <c r="B183" s="233"/>
+      <c r="C183" s="231"/>
+      <c r="D183" s="235"/>
     </row>
     <row r="184" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="175" t="s">
@@ -59952,7 +61439,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B29" sqref="B16:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -60511,13 +61998,13 @@
       <c r="F33" s="143"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="221" t="s">
+      <c r="A36" s="226" t="s">
         <v>1550</v>
       </c>
-      <c r="B36" s="221"/>
-      <c r="C36" s="221"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="221"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="226"/>
+      <c r="D36" s="226"/>
+      <c r="E36" s="226"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="76" t="s">
@@ -60655,7 +62142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC8ADD7-709E-4AF7-A422-0BFBFB8DE117}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -60668,88 +62155,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="243" t="s">
         <v>750</v>
       </c>
-      <c r="B1" s="238"/>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="236" t="s">
+      <c r="A2" s="241" t="s">
         <v>749</v>
       </c>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="241" t="s">
         <v>748</v>
       </c>
-      <c r="B3" s="236"/>
-      <c r="C3" s="236"/>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
+      <c r="B3" s="241"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="241" t="s">
         <v>747</v>
       </c>
-      <c r="B4" s="236"/>
-      <c r="C4" s="236"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="236"/>
-      <c r="G4" s="236"/>
-      <c r="H4" s="236"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="236" t="s">
+      <c r="A5" s="241" t="s">
         <v>746</v>
       </c>
-      <c r="B5" s="236"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="241"/>
+      <c r="F5" s="241"/>
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="236" t="s">
+      <c r="A6" s="241" t="s">
         <v>745</v>
       </c>
-      <c r="B6" s="236"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="236"/>
-      <c r="F6" s="236"/>
-      <c r="G6" s="236"/>
-      <c r="H6" s="236"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="241"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="236" t="s">
+      <c r="A7" s="241" t="s">
         <v>744</v>
       </c>
-      <c r="B7" s="236"/>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
-      <c r="G7" s="236"/>
-      <c r="H7" s="236"/>
+      <c r="B7" s="241"/>
+      <c r="C7" s="241"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="78" t="s">
@@ -60764,12 +62251,12 @@
       <c r="D8" s="78" t="s">
         <v>740</v>
       </c>
-      <c r="E8" s="238" t="s">
+      <c r="E8" s="243" t="s">
         <v>739</v>
       </c>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="164">
@@ -60782,10 +62269,10 @@
         <v>738</v>
       </c>
       <c r="D9" s="165"/>
-      <c r="E9" s="236" t="s">
+      <c r="E9" s="241" t="s">
         <v>737</v>
       </c>
-      <c r="F9" s="236"/>
+      <c r="F9" s="241"/>
       <c r="G9" s="165"/>
       <c r="H9" s="165"/>
     </row>
@@ -60856,10 +62343,10 @@
       <c r="D13" s="165" t="s">
         <v>723</v>
       </c>
-      <c r="E13" s="236" t="s">
+      <c r="E13" s="241" t="s">
         <v>729</v>
       </c>
-      <c r="F13" s="236"/>
+      <c r="F13" s="241"/>
       <c r="G13" s="165"/>
       <c r="H13" s="165"/>
     </row>
@@ -60894,10 +62381,10 @@
       <c r="D15" s="165" t="s">
         <v>726</v>
       </c>
-      <c r="E15" s="236" t="s">
+      <c r="E15" s="241" t="s">
         <v>725</v>
       </c>
-      <c r="F15" s="236"/>
+      <c r="F15" s="241"/>
       <c r="G15" s="165"/>
       <c r="H15" s="165"/>
     </row>
@@ -60950,10 +62437,10 @@
         <v>716</v>
       </c>
       <c r="D18" s="165"/>
-      <c r="E18" s="236" t="s">
+      <c r="E18" s="241" t="s">
         <v>715</v>
       </c>
-      <c r="F18" s="236"/>
+      <c r="F18" s="241"/>
       <c r="G18" s="165" t="s">
         <v>714</v>
       </c>
@@ -60962,182 +62449,182 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="237" t="s">
+      <c r="A19" s="242" t="s">
         <v>712</v>
       </c>
-      <c r="B19" s="237"/>
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="237"/>
-      <c r="G19" s="237"/>
-      <c r="H19" s="237"/>
+      <c r="B19" s="242"/>
+      <c r="C19" s="242"/>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="236" t="s">
+      <c r="A20" s="241" t="s">
         <v>711</v>
       </c>
-      <c r="B20" s="236"/>
-      <c r="C20" s="236"/>
-      <c r="D20" s="236"/>
-      <c r="E20" s="236"/>
-      <c r="F20" s="236"/>
-      <c r="G20" s="236"/>
-      <c r="H20" s="236"/>
+      <c r="B20" s="241"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="236" t="s">
+      <c r="A21" s="241" t="s">
         <v>710</v>
       </c>
-      <c r="B21" s="236"/>
-      <c r="C21" s="236"/>
-      <c r="D21" s="236"/>
-      <c r="E21" s="236"/>
-      <c r="F21" s="236"/>
-      <c r="G21" s="236"/>
-      <c r="H21" s="236"/>
+      <c r="B21" s="241"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="241"/>
+      <c r="F21" s="241"/>
+      <c r="G21" s="241"/>
+      <c r="H21" s="241"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="236" t="s">
+      <c r="A22" s="241" t="s">
         <v>709</v>
       </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="236"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="236"/>
-      <c r="G22" s="236"/>
-      <c r="H22" s="236"/>
+      <c r="B22" s="241"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="241"/>
+      <c r="H22" s="241"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="236" t="s">
+      <c r="A23" s="241" t="s">
         <v>708</v>
       </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="236"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="236"/>
+      <c r="B23" s="241"/>
+      <c r="C23" s="241"/>
+      <c r="D23" s="241"/>
+      <c r="E23" s="241"/>
+      <c r="F23" s="241"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="241" t="s">
         <v>707</v>
       </c>
-      <c r="B24" s="236"/>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="236"/>
-      <c r="H24" s="236"/>
+      <c r="B24" s="241"/>
+      <c r="C24" s="241"/>
+      <c r="D24" s="241"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="236" t="s">
+      <c r="A25" s="241" t="s">
         <v>706</v>
       </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="236"/>
-      <c r="G25" s="236"/>
-      <c r="H25" s="236"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="241"/>
+      <c r="D25" s="241"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="241"/>
+      <c r="H25" s="241"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="236" t="s">
+      <c r="A26" s="241" t="s">
         <v>705</v>
       </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="236"/>
-      <c r="D26" s="236"/>
-      <c r="E26" s="236"/>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236"/>
-      <c r="H26" s="236"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="241"/>
+      <c r="E26" s="241"/>
+      <c r="F26" s="241"/>
+      <c r="G26" s="241"/>
+      <c r="H26" s="241"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="237" t="s">
+      <c r="A27" s="242" t="s">
         <v>704</v>
       </c>
-      <c r="B27" s="237"/>
-      <c r="C27" s="237"/>
-      <c r="D27" s="237"/>
-      <c r="E27" s="237"/>
-      <c r="F27" s="237"/>
-      <c r="G27" s="237"/>
-      <c r="H27" s="237"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="236"/>
-      <c r="B28" s="236"/>
-      <c r="C28" s="236"/>
-      <c r="D28" s="236"/>
-      <c r="E28" s="236"/>
-      <c r="F28" s="236"/>
-      <c r="G28" s="236"/>
-      <c r="H28" s="236"/>
+      <c r="A28" s="241"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="241"/>
+      <c r="D28" s="241"/>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="241"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="236"/>
-      <c r="B29" s="236"/>
-      <c r="C29" s="236"/>
-      <c r="D29" s="236"/>
-      <c r="E29" s="236"/>
-      <c r="F29" s="236"/>
-      <c r="G29" s="236"/>
-      <c r="H29" s="236"/>
+      <c r="A29" s="241"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="241"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="241"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="236"/>
-      <c r="B30" s="236"/>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="236"/>
-      <c r="G30" s="236"/>
-      <c r="H30" s="236"/>
+      <c r="A30" s="241"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="241"/>
+      <c r="D30" s="241"/>
+      <c r="E30" s="241"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="241"/>
+      <c r="H30" s="241"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="236"/>
-      <c r="B31" s="236"/>
-      <c r="C31" s="236"/>
-      <c r="D31" s="236"/>
-      <c r="E31" s="236"/>
-      <c r="F31" s="236"/>
-      <c r="G31" s="236"/>
-      <c r="H31" s="236"/>
+      <c r="A31" s="241"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="241"/>
+      <c r="E31" s="241"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
+      <c r="H31" s="241"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="236"/>
-      <c r="B32" s="236"/>
-      <c r="C32" s="236"/>
-      <c r="D32" s="236"/>
-      <c r="E32" s="236"/>
-      <c r="F32" s="236"/>
-      <c r="G32" s="236"/>
-      <c r="H32" s="236"/>
+      <c r="A32" s="241"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="241"/>
+      <c r="E32" s="241"/>
+      <c r="F32" s="241"/>
+      <c r="G32" s="241"/>
+      <c r="H32" s="241"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="236"/>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="236"/>
-      <c r="G33" s="236"/>
-      <c r="H33" s="236"/>
+      <c r="A33" s="241"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
+      <c r="E33" s="241"/>
+      <c r="F33" s="241"/>
+      <c r="G33" s="241"/>
+      <c r="H33" s="241"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="236"/>
-      <c r="B34" s="236"/>
-      <c r="C34" s="236"/>
-      <c r="D34" s="236"/>
-      <c r="E34" s="236"/>
-      <c r="F34" s="236"/>
-      <c r="G34" s="236"/>
-      <c r="H34" s="236"/>
+      <c r="A34" s="241"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="241"/>
+      <c r="D34" s="241"/>
+      <c r="E34" s="241"/>
+      <c r="F34" s="241"/>
+      <c r="G34" s="241"/>
+      <c r="H34" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -61195,7 +62682,7 @@
   <dimension ref="A1:I761"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A737" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H769" sqref="H769"/>
     </sheetView>
   </sheetViews>
